--- a/data_clean/Atea 15.12.2020.xlsx
+++ b/data_clean/Atea 15.12.2020.xlsx
@@ -681,7 +681,7 @@
         <v>1.270050806342158</v>
       </c>
       <c r="K2">
-        <v>53.34124971171276</v>
+        <v>0.03341249711712787</v>
       </c>
       <c r="L2">
         <v>0.009197043445387732</v>
@@ -711,13 +711,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -752,7 +752,7 @@
         <v>1.270050806342158</v>
       </c>
       <c r="K3">
-        <v>53.34124971171276</v>
+        <v>0.03341249711712787</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -782,13 +782,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L4">
         <v>-0.02050210374837428</v>
@@ -853,13 +853,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.9988505747126437</v>
+        <v>-0.001149425287356287</v>
       </c>
       <c r="V4">
-        <v>0.9988505747126437</v>
+        <v>-0.001149425287356287</v>
       </c>
       <c r="W4">
-        <v>0.996551724137931</v>
+        <v>-0.003448275862068972</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -894,7 +894,7 @@
         <v>1.578947368421053</v>
       </c>
       <c r="K5">
-        <v>61.22448979591837</v>
+        <v>0.1122448979591837</v>
       </c>
       <c r="L5">
         <v>-0.008631677049758681</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.000719217491369</v>
+        <v>0.0007192174913692728</v>
       </c>
       <c r="V5">
-        <v>1.000719217491369</v>
+        <v>0.0007192174913692728</v>
       </c>
       <c r="W5">
-        <v>1.005190311418685</v>
+        <v>0.00519031141868509</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -965,7 +965,7 @@
         <v>3.795013850415474</v>
       </c>
       <c r="K6">
-        <v>79.14500288850358</v>
+        <v>0.2914500288850358</v>
       </c>
       <c r="L6">
         <v>0.0137166140531878</v>
@@ -995,13 +995,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.001811125485123</v>
+        <v>0.001811125485122744</v>
       </c>
       <c r="V6">
-        <v>1.001811125485123</v>
+        <v>0.001811125485122744</v>
       </c>
       <c r="W6">
-        <v>1.006884681583477</v>
+        <v>0.006884681583476659</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1036,7 +1036,7 @@
         <v>3.795013850415475</v>
       </c>
       <c r="K7">
-        <v>79.1450028885036</v>
+        <v>0.291450028885036</v>
       </c>
       <c r="L7">
         <v>0.0293022491667337</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1.00120523415978</v>
+        <v>0.001205234159779689</v>
       </c>
       <c r="V7">
-        <v>1.00120523415978</v>
+        <v>0.001205234159779689</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1107,7 +1107,7 @@
         <v>1.703528163653318</v>
       </c>
       <c r="K8">
-        <v>63.01129711004435</v>
+        <v>0.1301129711004435</v>
       </c>
       <c r="L8">
         <v>0.03502839998358574</v>
@@ -1137,13 +1137,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1.000368505097654</v>
+        <v>0.0003685050976538484</v>
       </c>
       <c r="V8">
-        <v>1.000368505097654</v>
+        <v>0.0003685050976538484</v>
       </c>
       <c r="W8">
-        <v>0.9965811965811965</v>
+        <v>-0.003418803418803518</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1178,7 +1178,7 @@
         <v>1.078100420841942</v>
       </c>
       <c r="K9">
-        <v>51.87913009541424</v>
+        <v>0.01879130095414239</v>
       </c>
       <c r="L9">
         <v>0.03333816186758608</v>
@@ -1208,13 +1208,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.9998465127701376</v>
+        <v>-0.0001534872298624146</v>
       </c>
       <c r="V9">
-        <v>0.9998465127701376</v>
+        <v>-0.0001534872298624146</v>
       </c>
       <c r="W9">
-        <v>0.9965694682675815</v>
+        <v>-0.003430531732418474</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1249,7 +1249,7 @@
         <v>1.271330273590954</v>
       </c>
       <c r="K10">
-        <v>55.97293746193024</v>
+        <v>0.05972937461930239</v>
       </c>
       <c r="L10">
         <v>0.03055859176904163</v>
@@ -1279,13 +1279,13 @@
         <v>0.0416666666666714</v>
       </c>
       <c r="U10">
-        <v>1.000071638369511</v>
+        <v>7.163836951074032E-05</v>
       </c>
       <c r="V10">
-        <v>1.000071638369511</v>
+        <v>7.163836951074032E-05</v>
       </c>
       <c r="W10">
-        <v>1.001721170395869</v>
+        <v>0.001721170395869276</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1320,7 +1320,7 @@
         <v>1.474730118589899</v>
       </c>
       <c r="K11">
-        <v>59.59155333795348</v>
+        <v>0.09591553337953473</v>
       </c>
       <c r="L11">
         <v>0.02869289755837548</v>
@@ -1350,13 +1350,13 @@
         <v>0.09000000000001762</v>
       </c>
       <c r="U11">
-        <v>1.000229226361032</v>
+        <v>0.0002292263610315093</v>
       </c>
       <c r="V11">
-        <v>1.000229226361032</v>
+        <v>0.0002292263610315093</v>
       </c>
       <c r="W11">
-        <v>1.001718213058419</v>
+        <v>0.001718213058419238</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1391,7 +1391,7 @@
         <v>0.8979579734737061</v>
       </c>
       <c r="K12">
-        <v>47.31179436129628</v>
+        <v>-0.02688205638703722</v>
       </c>
       <c r="L12">
         <v>0.02405271858384357</v>
@@ -1421,13 +1421,13 @@
         <v>0.1727272727272862</v>
       </c>
       <c r="U12">
-        <v>0.9997187412106628</v>
+        <v>-0.0002812587893371576</v>
       </c>
       <c r="V12">
-        <v>0.9997187412106628</v>
+        <v>-0.0002812587893371576</v>
       </c>
       <c r="W12">
-        <v>0.9948542024013722</v>
+        <v>-0.005145797598627766</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1462,7 +1462,7 @@
         <v>0.8979579734737061</v>
       </c>
       <c r="K13">
-        <v>47.31179436129628</v>
+        <v>-0.02688205638703722</v>
       </c>
       <c r="L13">
         <v>0.01857498906683953</v>
@@ -1492,13 +1492,13 @@
         <v>0.1750000000000114</v>
       </c>
       <c r="U13">
-        <v>0.9997655517349172</v>
+        <v>-0.0002344482650827873</v>
       </c>
       <c r="V13">
-        <v>0.9997655517349172</v>
+        <v>-0.0002344482650827873</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1533,7 +1533,7 @@
         <v>0.8979579734737062</v>
       </c>
       <c r="K14">
-        <v>47.31179436129629</v>
+        <v>-0.02688205638703711</v>
       </c>
       <c r="L14">
         <v>0.01316569658541249</v>
@@ -1563,13 +1563,13 @@
         <v>0.07307692307693969</v>
       </c>
       <c r="U14">
-        <v>0.9998015741781864</v>
+        <v>-0.0001984258218136192</v>
       </c>
       <c r="V14">
-        <v>0.9998015741781864</v>
+        <v>-0.0001984258218136192</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1604,7 +1604,7 @@
         <v>0.8979579734737061</v>
       </c>
       <c r="K15">
-        <v>47.31179436129628</v>
+        <v>-0.02688205638703722</v>
       </c>
       <c r="L15">
         <v>0.008233573634133353</v>
@@ -1634,13 +1634,13 @@
         <v>-0.03214285714284415</v>
       </c>
       <c r="U15">
-        <v>0.9998298869693418</v>
+        <v>-0.00017011303065817</v>
       </c>
       <c r="V15">
-        <v>0.9998298869693418</v>
+        <v>-0.00017011303065817</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1675,7 +1675,7 @@
         <v>0.8979579734737062</v>
       </c>
       <c r="K16">
-        <v>47.31179436129629</v>
+        <v>-0.02688205638703711</v>
       </c>
       <c r="L16">
         <v>0.003940212696001864</v>
@@ -1705,13 +1705,13 @@
         <v>-0.0899999999999892</v>
       </c>
       <c r="U16">
-        <v>0.9998525436225116</v>
+        <v>-0.0001474563774883642</v>
       </c>
       <c r="V16">
-        <v>0.9998525436225116</v>
+        <v>-0.0001474563774883642</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1746,7 +1746,7 @@
         <v>0.8979579734737061</v>
       </c>
       <c r="K17">
-        <v>47.31179436129628</v>
+        <v>-0.02688205638703722</v>
       </c>
       <c r="L17">
         <v>0.0003228167558035354</v>
@@ -1776,13 +1776,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U17">
-        <v>0.9998709566414316</v>
+        <v>-0.0001290433585684481</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1817,7 +1817,7 @@
         <v>0.8979579734737062</v>
       </c>
       <c r="K18">
-        <v>47.31179436129629</v>
+        <v>-0.02688205638703711</v>
       </c>
       <c r="L18">
         <v>-0.002643358405534953</v>
@@ -1847,13 +1847,13 @@
         <v>-0.1499999999999915</v>
       </c>
       <c r="U18">
-        <v>0.9998861235180241</v>
+        <v>-0.0001138764819759164</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1888,7 +1888,7 @@
         <v>1.458007573237313</v>
       </c>
       <c r="K19">
-        <v>59.31664284162671</v>
+        <v>0.0931664284162671</v>
       </c>
       <c r="L19">
         <v>-0.00282403629390672</v>
@@ -1918,13 +1918,13 @@
         <v>-0.1875000000000142</v>
       </c>
       <c r="U19">
-        <v>1.00018559762435</v>
+        <v>0.000185597624350331</v>
       </c>
       <c r="V19">
-        <v>1.000573526038082</v>
+        <v>0.0005735260380821394</v>
       </c>
       <c r="W19">
-        <v>1.005172413793103</v>
+        <v>0.005172413793103292</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1959,7 +1959,7 @@
         <v>1.458007573237313</v>
       </c>
       <c r="K20">
-        <v>59.31664284162671</v>
+        <v>0.0931664284162671</v>
       </c>
       <c r="L20">
         <v>-0.001434424327996126</v>
@@ -1989,13 +1989,13 @@
         <v>-0.1750000000000114</v>
       </c>
       <c r="U20">
-        <v>1.0001660302175</v>
+        <v>0.0001660302174997241</v>
       </c>
       <c r="V20">
-        <v>1.000229278917803</v>
+        <v>0.0002292789178033328</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2030,7 +2030,7 @@
         <v>1.458007573237313</v>
       </c>
       <c r="K21">
-        <v>59.31664284162671</v>
+        <v>0.0931664284162671</v>
       </c>
       <c r="L21">
         <v>0.0007425909458291955</v>
@@ -2060,13 +2060,13 @@
         <v>-0.125</v>
       </c>
       <c r="U21">
-        <v>1.000149402390438</v>
+        <v>0.000149402390438258</v>
       </c>
       <c r="V21">
-        <v>0.9997707736389685</v>
+        <v>-0.0002292263610315093</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2101,7 +2101,7 @@
         <v>1.458007573237313</v>
       </c>
       <c r="K22">
-        <v>59.31664284162671</v>
+        <v>0.0931664284162671</v>
       </c>
       <c r="L22">
         <v>0.003208516706351689</v>
@@ -2131,13 +2131,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U22">
-        <v>1.000135153399108</v>
+        <v>0.0001351533991078568</v>
       </c>
       <c r="V22">
-        <v>0.9997707210821966</v>
+        <v>-0.0002292789178034438</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2172,7 +2172,7 @@
         <v>1.458007573237313</v>
       </c>
       <c r="K23">
-        <v>59.31664284162671</v>
+        <v>0.0931664284162671</v>
       </c>
       <c r="L23">
         <v>0.005653771369865092</v>
@@ -2202,13 +2202,13 @@
         <v>0.07500000000000284</v>
       </c>
       <c r="U23">
-        <v>1.00012285012285</v>
+        <v>0.0001228501228500711</v>
       </c>
       <c r="V23">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2243,7 +2243,7 @@
         <v>0.9834643120170792</v>
       </c>
       <c r="K24">
-        <v>49.58316144427865</v>
+        <v>-0.004168385557213494</v>
       </c>
       <c r="L24">
         <v>0.006557658506047827</v>
@@ -2273,13 +2273,13 @@
         <v>0.125</v>
       </c>
       <c r="U24">
-        <v>0.9999626154248759</v>
+        <v>-3.738457512414417E-05</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W24">
-        <v>0.9965694682675815</v>
+        <v>-0.003430531732418474</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2314,7 +2314,7 @@
         <v>1.326068309078611</v>
       </c>
       <c r="K25">
-        <v>57.00900115026656</v>
+        <v>0.07009001150266558</v>
       </c>
       <c r="L25">
         <v>0.00779796759524303</v>
@@ -2344,13 +2344,13 @@
         <v>0.1749999999999972</v>
       </c>
       <c r="U25">
-        <v>1.000109042420617</v>
+        <v>0.0001090424206171559</v>
       </c>
       <c r="V25">
-        <v>1.00011466574934</v>
+        <v>0.0001146657493404923</v>
       </c>
       <c r="W25">
-        <v>1.003442340791738</v>
+        <v>0.00344234079173833</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2385,7 +2385,7 @@
         <v>1.506386202268898</v>
       </c>
       <c r="K26">
-        <v>60.10191888645281</v>
+        <v>0.1010191888645281</v>
       </c>
       <c r="L26">
         <v>0.009777573208036794</v>
@@ -2415,13 +2415,13 @@
         <v>0.2499999999999858</v>
       </c>
       <c r="U26">
-        <v>1.000169090778821</v>
+        <v>0.0001690907788205465</v>
       </c>
       <c r="V26">
-        <v>1.000114652602614</v>
+        <v>0.0001146526026141181</v>
       </c>
       <c r="W26">
-        <v>1.001715265866209</v>
+        <v>0.001715265866209181</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2456,7 +2456,7 @@
         <v>1.506386202268899</v>
       </c>
       <c r="K27">
-        <v>60.10191888645281</v>
+        <v>0.1010191888645281</v>
       </c>
       <c r="L27">
         <v>0.01202268556737085</v>
@@ -2486,13 +2486,13 @@
         <v>0.2625000000000028</v>
       </c>
       <c r="U27">
-        <v>1.000156057407966</v>
+        <v>0.0001560574079657595</v>
       </c>
       <c r="V27">
-        <v>1.000458557835607</v>
+        <v>0.0004585578356068876</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2527,7 +2527,7 @@
         <v>1.506386202268899</v>
       </c>
       <c r="K28">
-        <v>60.10191888645281</v>
+        <v>0.1010191888645281</v>
       </c>
       <c r="L28">
         <v>0.01422949108577255</v>
@@ -2557,13 +2557,13 @@
         <v>0.2374999999999972</v>
       </c>
       <c r="U28">
-        <v>1.000144475053566</v>
+        <v>0.0001444750535659622</v>
       </c>
       <c r="V28">
-        <v>1.000458347656698</v>
+        <v>0.0004583476566977218</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2598,7 +2598,7 @@
         <v>1.244624376485405</v>
       </c>
       <c r="K29">
-        <v>55.4491160981784</v>
+        <v>0.05449116098178397</v>
       </c>
       <c r="L29">
         <v>0.01556941442192414</v>
@@ -2628,13 +2628,13 @@
         <v>0.2000000000000028</v>
       </c>
       <c r="U29">
-        <v>1.000072751743768</v>
+        <v>7.275174376841775E-05</v>
       </c>
       <c r="V29">
-        <v>1.000343603252777</v>
+        <v>0.0003436032527774913</v>
       </c>
       <c r="W29">
-        <v>0.9982876712328766</v>
+        <v>-0.00171232876712335</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2669,7 +2669,7 @@
         <v>1.244624376485405</v>
       </c>
       <c r="K30">
-        <v>55.44911609817839</v>
+        <v>0.05449116098178386</v>
       </c>
       <c r="L30">
         <v>0.0162457345022425</v>
@@ -2699,13 +2699,13 @@
         <v>0.1624999999999943</v>
       </c>
       <c r="U30">
-        <v>1.000067729454693</v>
+        <v>6.772945469313285E-05</v>
       </c>
       <c r="V30">
-        <v>1.000343485230135</v>
+        <v>0.0003434852301351654</v>
       </c>
       <c r="W30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2740,7 +2740,7 @@
         <v>1.244624376485405</v>
       </c>
       <c r="K31">
-        <v>55.4491160981784</v>
+        <v>0.05449116098178397</v>
       </c>
       <c r="L31">
         <v>0.0164203085274186</v>
@@ -2770,13 +2770,13 @@
         <v>0.125</v>
       </c>
       <c r="U31">
-        <v>1.000063209876543</v>
+        <v>6.320987654317989E-05</v>
       </c>
       <c r="V31">
-        <v>1.000343367288543</v>
+        <v>0.0003433672885428951</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2811,7 +2811,7 @@
         <v>1.244624376485405</v>
       </c>
       <c r="K32">
-        <v>55.4491160981784</v>
+        <v>0.05449116098178397</v>
       </c>
       <c r="L32">
         <v>0.01622175398289002</v>
@@ -2841,13 +2841,13 @@
         <v>0.1375000000000028</v>
       </c>
       <c r="U32">
-        <v>1.000171840989804</v>
+        <v>0.0001718409898041617</v>
       </c>
       <c r="V32">
-        <v>1.000343249427918</v>
+        <v>0.0003432494279176357</v>
       </c>
       <c r="W32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2882,7 +2882,7 @@
         <v>1.025782326999555</v>
       </c>
       <c r="K33">
-        <v>50.63635482094816</v>
+        <v>0.006363548209481595</v>
       </c>
       <c r="L33">
         <v>0.01511714859480909</v>
@@ -2912,13 +2912,13 @@
         <v>0.08749999999999147</v>
       </c>
       <c r="U33">
-        <v>1.000114540977034</v>
+        <v>0.0001145409770344497</v>
       </c>
       <c r="V33">
-        <v>1.000228754432117</v>
+        <v>0.0002287544321171175</v>
       </c>
       <c r="W33">
-        <v>0.9982847341337908</v>
+        <v>-0.001715265866209181</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2953,7 +2953,7 @@
         <v>1.025782326999555</v>
       </c>
       <c r="K34">
-        <v>50.63635482094816</v>
+        <v>0.006363548209481595</v>
       </c>
       <c r="L34">
         <v>0.01348393198661039</v>
@@ -2983,13 +2983,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U34">
-        <v>1.000229055717803</v>
+        <v>0.0002290557178032948</v>
       </c>
       <c r="V34">
-        <v>0.9998856489422527</v>
+        <v>-0.000114351057747264</v>
       </c>
       <c r="W34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3024,7 +3024,7 @@
         <v>0.8585207921115363</v>
       </c>
       <c r="K35">
-        <v>46.19376849349843</v>
+        <v>-0.03806231506501567</v>
       </c>
       <c r="L35">
         <v>0.01095652320263235</v>
@@ -3054,13 +3054,13 @@
         <v>-0.03750000000000853</v>
       </c>
       <c r="U35">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V35">
-        <v>0.9997712717291858</v>
+        <v>-0.0002287282708142158</v>
       </c>
       <c r="W35">
-        <v>0.9982817869415808</v>
+        <v>-0.001718213058419238</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3095,7 +3095,7 @@
         <v>1.030160299765495</v>
       </c>
       <c r="K36">
-        <v>50.74280587027976</v>
+        <v>0.007428058702797613</v>
       </c>
       <c r="L36">
         <v>0.008644360446963682</v>
@@ -3125,13 +3125,13 @@
         <v>-0.07500000000000284</v>
       </c>
       <c r="U36">
-        <v>0.9998282475525276</v>
+        <v>-0.000171752447472362</v>
       </c>
       <c r="V36">
-        <v>0.9998856097002974</v>
+        <v>-0.0001143902997026158</v>
       </c>
       <c r="W36">
-        <v>1.001721170395869</v>
+        <v>0.001721170395869276</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3166,7 +3166,7 @@
         <v>0.7567216920659713</v>
       </c>
       <c r="K37">
-        <v>43.07578687526981</v>
+        <v>-0.06924213124730194</v>
       </c>
       <c r="L37">
         <v>0.005318755231196167</v>
@@ -3196,13 +3196,13 @@
         <v>-0.1124999999999972</v>
       </c>
       <c r="U37">
-        <v>0.999713696747595</v>
+        <v>-0.0002863032524049736</v>
       </c>
       <c r="V37">
-        <v>0.9996567898409793</v>
+        <v>-0.0003432101590207237</v>
       </c>
       <c r="W37">
-        <v>0.9965635738831614</v>
+        <v>-0.003436426116838587</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3237,7 +3237,7 @@
         <v>1.175826534438708</v>
       </c>
       <c r="K38">
-        <v>54.04045386099827</v>
+        <v>0.04040453860998272</v>
       </c>
       <c r="L38">
         <v>0.003463983036766087</v>
@@ -3267,13 +3267,13 @@
         <v>-0.1125000000000114</v>
       </c>
       <c r="U38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V38">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W38">
-        <v>1.005172413793103</v>
+        <v>0.005172413793103292</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3308,7 +3308,7 @@
         <v>1.175826534438707</v>
       </c>
       <c r="K39">
-        <v>54.04045386099827</v>
+        <v>0.04040453860998272</v>
       </c>
       <c r="L39">
         <v>0.002603227918764506</v>
@@ -3338,13 +3338,13 @@
         <v>-0.1124999999999972</v>
       </c>
       <c r="U39">
-        <v>1.000114554098173</v>
+        <v>0.0001145540981728477</v>
       </c>
       <c r="V39">
-        <v>1.00022888532845</v>
+        <v>0.0002288853284504455</v>
       </c>
       <c r="W39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3379,7 +3379,7 @@
         <v>1.018213206494259</v>
       </c>
       <c r="K40">
-        <v>50.45122107108535</v>
+        <v>0.004512210710853504</v>
       </c>
       <c r="L40">
         <v>0.00176024955238527</v>
@@ -3409,13 +3409,13 @@
         <v>-0.1500000000000057</v>
       </c>
       <c r="U40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40">
-        <v>0.9998855835240276</v>
+        <v>-0.0001144164759724342</v>
       </c>
       <c r="W40">
-        <v>0.9982847341337908</v>
+        <v>-0.001715265866209181</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3450,7 +3450,7 @@
         <v>1.159312902238506</v>
       </c>
       <c r="K41">
-        <v>53.68897212797066</v>
+        <v>0.03688972127970669</v>
       </c>
       <c r="L41">
         <v>0.001603283472309924</v>
@@ -3480,13 +3480,13 @@
         <v>-0.125</v>
       </c>
       <c r="U41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V41">
-        <v>0.9998855704313994</v>
+        <v>-0.000114429568600638</v>
       </c>
       <c r="W41">
-        <v>1.001718213058419</v>
+        <v>0.001718213058419238</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3521,7 +3521,7 @@
         <v>1.159312902238506</v>
       </c>
       <c r="K42">
-        <v>53.68897212797066</v>
+        <v>0.03688972127970669</v>
       </c>
       <c r="L42">
         <v>0.001865187537516803</v>
@@ -3551,13 +3551,13 @@
         <v>-0.08749999999999147</v>
       </c>
       <c r="U42">
-        <v>1.000171811465552</v>
+        <v>0.0001718114655517855</v>
       </c>
       <c r="V42">
-        <v>0.9998855573357748</v>
+        <v>-0.0001144426642252228</v>
       </c>
       <c r="W42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3592,7 +3592,7 @@
         <v>1.002568224710044</v>
       </c>
       <c r="K43">
-        <v>50.0641232762598</v>
+        <v>0.0006412327625979763</v>
       </c>
       <c r="L43">
         <v>0.001729765902732211</v>
@@ -3622,13 +3622,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U43">
-        <v>1.000114521300962</v>
+        <v>0.0001145213009619006</v>
       </c>
       <c r="V43">
-        <v>0.9997710884743047</v>
+        <v>-0.0002289115256952634</v>
       </c>
       <c r="W43">
-        <v>0.9982847341337908</v>
+        <v>-0.001715265866209181</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3663,7 +3663,7 @@
         <v>1.002568224710044</v>
       </c>
       <c r="K44">
-        <v>50.0641232762598</v>
+        <v>0.0006412327625979763</v>
       </c>
       <c r="L44">
         <v>0.001356352605778825</v>
@@ -3693,13 +3693,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U44">
-        <v>1.000114508187335</v>
+        <v>0.0001145081873354936</v>
       </c>
       <c r="V44">
-        <v>0.9998855180309102</v>
+        <v>-0.000114481969089808</v>
       </c>
       <c r="W44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3734,7 +3734,7 @@
         <v>0.8719414388851222</v>
       </c>
       <c r="K45">
-        <v>46.57952544735731</v>
+        <v>-0.03420474552642688</v>
       </c>
       <c r="L45">
         <v>0.0002313103492407204</v>
@@ -3764,13 +3764,13 @@
         <v>0.03750000000000853</v>
       </c>
       <c r="U45">
-        <v>1.000057247538356</v>
+        <v>5.724753835600893E-05</v>
       </c>
       <c r="V45">
-        <v>0.9997710098465764</v>
+        <v>-0.0002289901534235916</v>
       </c>
       <c r="W45">
-        <v>0.9982817869415808</v>
+        <v>-0.001718213058419238</v>
       </c>
     </row>
   </sheetData>

--- a/data_clean/Atea 15.12.2020.xlsx
+++ b/data_clean/Atea 15.12.2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>tid</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>open_15_sma</t>
+  </si>
+  <si>
+    <t>open_3_sma</t>
   </si>
   <si>
     <t>sma8-16</t>
@@ -572,13 +575,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,10 +651,13 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>116</v>
@@ -708,7 +714,7 @@
         <v>116</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -719,10 +725,13 @@
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>116</v>
@@ -779,7 +788,7 @@
         <v>116</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -790,10 +799,13 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>115.6</v>
@@ -850,21 +862,24 @@
         <v>115.8666666666667</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>115.8666666666667</v>
       </c>
       <c r="U4">
-        <v>-0.001149425287356287</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>-0.001149425287356287</v>
       </c>
       <c r="W4">
+        <v>-0.001149425287356287</v>
+      </c>
+      <c r="X4">
         <v>-0.003448275862068972</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>116.2</v>
@@ -921,21 +936,24 @@
         <v>115.95</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>115.9333333333333</v>
       </c>
       <c r="U5">
-        <v>0.0007192174913692728</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>0.0007192174913692728</v>
       </c>
       <c r="W5">
+        <v>0.0007192174913692728</v>
+      </c>
+      <c r="X5">
         <v>0.00519031141868509</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>117</v>
@@ -992,21 +1010,24 @@
         <v>116.16</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>116.2666666666667</v>
       </c>
       <c r="U6">
-        <v>0.001811125485122744</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0.001811125485122744</v>
       </c>
       <c r="W6">
+        <v>0.001811125485122744</v>
+      </c>
+      <c r="X6">
         <v>0.006884681583476659</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>117</v>
@@ -1063,21 +1084,24 @@
         <v>116.3</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>116.7333333333333</v>
       </c>
       <c r="U7">
-        <v>0.001205234159779689</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>0.001205234159779689</v>
       </c>
       <c r="W7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+        <v>0.001205234159779689</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>116.6</v>
@@ -1134,21 +1158,24 @@
         <v>116.3428571428571</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>116.8666666666667</v>
       </c>
       <c r="U8">
-        <v>0.0003685050976538484</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>0.0003685050976538484</v>
       </c>
       <c r="W8">
+        <v>0.0003685050976538484</v>
+      </c>
+      <c r="X8">
         <v>-0.003418803418803518</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>116.2</v>
@@ -1205,21 +1232,24 @@
         <v>116.325</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>116.6</v>
       </c>
       <c r="U9">
-        <v>-0.0001534872298624146</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>-0.0001534872298624146</v>
       </c>
       <c r="W9">
+        <v>-0.0001534872298624146</v>
+      </c>
+      <c r="X9">
         <v>-0.003430531732418474</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>116.4</v>
@@ -1276,21 +1306,24 @@
         <v>116.3333333333333</v>
       </c>
       <c r="T10">
+        <v>116.4</v>
+      </c>
+      <c r="U10">
         <v>0.0416666666666714</v>
-      </c>
-      <c r="U10">
-        <v>7.163836951074032E-05</v>
       </c>
       <c r="V10">
         <v>7.163836951074032E-05</v>
       </c>
       <c r="W10">
+        <v>7.163836951074032E-05</v>
+      </c>
+      <c r="X10">
         <v>0.001721170395869276</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>116.6</v>
@@ -1347,21 +1380,24 @@
         <v>116.36</v>
       </c>
       <c r="T11">
+        <v>116.4</v>
+      </c>
+      <c r="U11">
         <v>0.09000000000001762</v>
-      </c>
-      <c r="U11">
-        <v>0.0002292263610315093</v>
       </c>
       <c r="V11">
         <v>0.0002292263610315093</v>
       </c>
       <c r="W11">
+        <v>0.0002292263610315093</v>
+      </c>
+      <c r="X11">
         <v>0.001718213058419238</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>116</v>
@@ -1418,21 +1454,24 @@
         <v>116.3272727272727</v>
       </c>
       <c r="T12">
+        <v>116.3333333333333</v>
+      </c>
+      <c r="U12">
         <v>0.1727272727272862</v>
-      </c>
-      <c r="U12">
-        <v>-0.0002812587893371576</v>
       </c>
       <c r="V12">
         <v>-0.0002812587893371576</v>
       </c>
       <c r="W12">
+        <v>-0.0002812587893371576</v>
+      </c>
+      <c r="X12">
         <v>-0.005145797598627766</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>116</v>
@@ -1489,21 +1528,24 @@
         <v>116.3</v>
       </c>
       <c r="T13">
+        <v>116.2</v>
+      </c>
+      <c r="U13">
         <v>0.1750000000000114</v>
-      </c>
-      <c r="U13">
-        <v>-0.0002344482650827873</v>
       </c>
       <c r="V13">
         <v>-0.0002344482650827873</v>
       </c>
       <c r="W13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
+        <v>-0.0002344482650827873</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>116</v>
@@ -1560,21 +1602,24 @@
         <v>116.2769230769231</v>
       </c>
       <c r="T14">
+        <v>116</v>
+      </c>
+      <c r="U14">
         <v>0.07307692307693969</v>
-      </c>
-      <c r="U14">
-        <v>-0.0001984258218136192</v>
       </c>
       <c r="V14">
         <v>-0.0001984258218136192</v>
       </c>
       <c r="W14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
+        <v>-0.0001984258218136192</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>116</v>
@@ -1631,21 +1676,24 @@
         <v>116.2571428571429</v>
       </c>
       <c r="T15">
+        <v>116</v>
+      </c>
+      <c r="U15">
         <v>-0.03214285714284415</v>
-      </c>
-      <c r="U15">
-        <v>-0.00017011303065817</v>
       </c>
       <c r="V15">
         <v>-0.00017011303065817</v>
       </c>
       <c r="W15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
+        <v>-0.00017011303065817</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>116</v>
@@ -1702,21 +1750,24 @@
         <v>116.24</v>
       </c>
       <c r="T16">
+        <v>116</v>
+      </c>
+      <c r="U16">
         <v>-0.0899999999999892</v>
-      </c>
-      <c r="U16">
-        <v>-0.0001474563774883642</v>
       </c>
       <c r="V16">
         <v>-0.0001474563774883642</v>
       </c>
       <c r="W16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
+        <v>-0.0001474563774883642</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>116</v>
@@ -1773,21 +1824,24 @@
         <v>116.24</v>
       </c>
       <c r="T17">
+        <v>116</v>
+      </c>
+      <c r="U17">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-0.0001290433585684481</v>
       </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
       <c r="W17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>116</v>
@@ -1844,21 +1898,24 @@
         <v>116.24</v>
       </c>
       <c r="T18">
+        <v>116</v>
+      </c>
+      <c r="U18">
         <v>-0.1499999999999915</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>-0.0001138764819759164</v>
       </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
       <c r="W18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>116.6</v>
@@ -1915,21 +1972,24 @@
         <v>116.3066666666667</v>
       </c>
       <c r="T19">
+        <v>116.2</v>
+      </c>
+      <c r="U19">
         <v>-0.1875000000000142</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>0.000185597624350331</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.0005735260380821394</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.005172413793103292</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>116.6</v>
@@ -1986,21 +2046,24 @@
         <v>116.3333333333333</v>
       </c>
       <c r="T20">
+        <v>116.4</v>
+      </c>
+      <c r="U20">
         <v>-0.1750000000000114</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.0001660302174997241</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.0002292789178033328</v>
       </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>116.6</v>
@@ -2057,21 +2120,24 @@
         <v>116.3066666666667</v>
       </c>
       <c r="T21">
+        <v>116.6</v>
+      </c>
+      <c r="U21">
         <v>-0.125</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.000149402390438258</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>-0.0002292263610315093</v>
       </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>116.6</v>
@@ -2128,21 +2194,24 @@
         <v>116.28</v>
       </c>
       <c r="T22">
+        <v>116.6</v>
+      </c>
+      <c r="U22">
         <v>-0.02500000000000568</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.0001351533991078568</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>-0.0002292789178034438</v>
       </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>116.6</v>
@@ -2199,21 +2268,24 @@
         <v>116.28</v>
       </c>
       <c r="T23">
+        <v>116.6</v>
+      </c>
+      <c r="U23">
         <v>0.07500000000000284</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>0.0001228501228500711</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>116.2</v>
@@ -2270,21 +2342,24 @@
         <v>116.28</v>
       </c>
       <c r="T24">
+        <v>116.4666666666667</v>
+      </c>
+      <c r="U24">
         <v>0.125</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>-3.738457512414417E-05</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>-0.003430531732418474</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>116.6</v>
@@ -2341,21 +2416,24 @@
         <v>116.2933333333333</v>
       </c>
       <c r="T25">
+        <v>116.4666666666667</v>
+      </c>
+      <c r="U25">
         <v>0.1749999999999972</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>0.0001090424206171559</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>0.0001146657493404923</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>0.00344234079173833</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>116.8</v>
@@ -2412,21 +2490,24 @@
         <v>116.3066666666667</v>
       </c>
       <c r="T26">
+        <v>116.5333333333333</v>
+      </c>
+      <c r="U26">
         <v>0.2499999999999858</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>0.0001690907788205465</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0.0001146526026141181</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>0.001715265866209181</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>116.8</v>
@@ -2483,21 +2564,24 @@
         <v>116.36</v>
       </c>
       <c r="T27">
+        <v>116.7333333333333</v>
+      </c>
+      <c r="U27">
         <v>0.2625000000000028</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>0.0001560574079657595</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>0.0004585578356068876</v>
       </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="X27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>116.8</v>
@@ -2554,21 +2638,24 @@
         <v>116.4133333333333</v>
       </c>
       <c r="T28">
+        <v>116.8</v>
+      </c>
+      <c r="U28">
         <v>0.2374999999999972</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>0.0001444750535659622</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.0004583476566977218</v>
       </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="X28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>116.6</v>
@@ -2625,21 +2712,24 @@
         <v>116.4533333333333</v>
       </c>
       <c r="T29">
+        <v>116.7333333333333</v>
+      </c>
+      <c r="U29">
         <v>0.2000000000000028</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>7.275174376841775E-05</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.0003436032527774913</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-0.00171232876712335</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>116.6</v>
@@ -2696,21 +2786,24 @@
         <v>116.4933333333333</v>
       </c>
       <c r="T30">
+        <v>116.6666666666667</v>
+      </c>
+      <c r="U30">
         <v>0.1624999999999943</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>6.772945469313285E-05</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.0003434852301351654</v>
       </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="X30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>116.6</v>
@@ -2767,21 +2860,24 @@
         <v>116.5333333333333</v>
       </c>
       <c r="T31">
+        <v>116.6</v>
+      </c>
+      <c r="U31">
         <v>0.125</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>6.320987654317989E-05</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.0003433672885428951</v>
       </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="X31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <v>116.6</v>
@@ -2838,21 +2934,24 @@
         <v>116.5733333333333</v>
       </c>
       <c r="T32">
+        <v>116.6</v>
+      </c>
+      <c r="U32">
         <v>0.1375000000000028</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>0.0001718409898041617</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>0.0003432494279176357</v>
       </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="X32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>116.4</v>
@@ -2909,21 +3008,24 @@
         <v>116.6</v>
       </c>
       <c r="T33">
+        <v>116.5333333333333</v>
+      </c>
+      <c r="U33">
         <v>0.08749999999999147</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0.0001145409770344497</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.0002287544321171175</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>-0.001715265866209181</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>116.4</v>
@@ -2980,21 +3082,24 @@
         <v>116.5866666666667</v>
       </c>
       <c r="T34">
+        <v>116.4666666666667</v>
+      </c>
+      <c r="U34">
         <v>0.01249999999998863</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>0.0002290557178032948</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>-0.000114351057747264</v>
       </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="X34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>116.2</v>
@@ -3051,21 +3156,24 @@
         <v>116.56</v>
       </c>
       <c r="T35">
+        <v>116.3333333333333</v>
+      </c>
+      <c r="U35">
         <v>-0.03750000000000853</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>-0.0002287282708142158</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>-0.001718213058419238</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>116.4</v>
@@ -3122,21 +3230,24 @@
         <v>116.5466666666667</v>
       </c>
       <c r="T36">
+        <v>116.3333333333333</v>
+      </c>
+      <c r="U36">
         <v>-0.07500000000000284</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>-0.000171752447472362</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>-0.0001143902997026158</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>0.001721170395869276</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>116</v>
@@ -3193,21 +3304,24 @@
         <v>116.5066666666667</v>
       </c>
       <c r="T37">
+        <v>116.2</v>
+      </c>
+      <c r="U37">
         <v>-0.1124999999999972</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>-0.0002863032524049736</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>-0.0003432101590207237</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>-0.003436426116838587</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38">
         <v>116.6</v>
@@ -3264,21 +3378,24 @@
         <v>116.5066666666667</v>
       </c>
       <c r="T38">
+        <v>116.3333333333333</v>
+      </c>
+      <c r="U38">
         <v>-0.1125000000000114</v>
       </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
       <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>0.005172413793103292</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39">
         <v>116.6</v>
@@ -3335,21 +3452,24 @@
         <v>116.5333333333333</v>
       </c>
       <c r="T39">
+        <v>116.4</v>
+      </c>
+      <c r="U39">
         <v>-0.1124999999999972</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>0.0001145540981728477</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>0.0002288853284504455</v>
       </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="X39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <v>116.4</v>
@@ -3406,21 +3526,24 @@
         <v>116.52</v>
       </c>
       <c r="T40">
+        <v>116.5333333333333</v>
+      </c>
+      <c r="U40">
         <v>-0.1500000000000057</v>
       </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
       <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
         <v>-0.0001144164759724342</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>-0.001715265866209181</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41">
         <v>116.6</v>
@@ -3477,21 +3600,24 @@
         <v>116.5066666666667</v>
       </c>
       <c r="T41">
+        <v>116.5333333333333</v>
+      </c>
+      <c r="U41">
         <v>-0.125</v>
       </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
       <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
         <v>-0.000114429568600638</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>0.001718213058419238</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>116.6</v>
@@ -3548,21 +3674,24 @@
         <v>116.4933333333333</v>
       </c>
       <c r="T42">
+        <v>116.5333333333333</v>
+      </c>
+      <c r="U42">
         <v>-0.08749999999999147</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>0.0001718114655517855</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>-0.0001144426642252228</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="X42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>116.4</v>
@@ -3619,21 +3748,24 @@
         <v>116.4666666666667</v>
       </c>
       <c r="T43">
+        <v>116.5333333333333</v>
+      </c>
+      <c r="U43">
         <v>-0.03749999999999432</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>0.0001145213009619006</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>-0.0002289115256952634</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>-0.001715265866209181</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44">
         <v>116.4</v>
@@ -3690,21 +3822,24 @@
         <v>116.4533333333333</v>
       </c>
       <c r="T44">
+        <v>116.4666666666667</v>
+      </c>
+      <c r="U44">
         <v>-0.01250000000000284</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>0.0001145081873354936</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>-0.000114481969089808</v>
       </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23">
+      <c r="X44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45">
         <v>116.2</v>
@@ -3761,15 +3896,18 @@
         <v>116.4266666666667</v>
       </c>
       <c r="T45">
+        <v>116.3333333333333</v>
+      </c>
+      <c r="U45">
         <v>0.03750000000000853</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>5.724753835600893E-05</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>-0.0002289901534235916</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>-0.001718213058419238</v>
       </c>
     </row>

--- a/data_clean/Atea 15.12.2020.xlsx
+++ b/data_clean/Atea 15.12.2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>tid</t>
   </si>
@@ -76,6 +76,72 @@
     <t>open_3_sma</t>
   </si>
   <si>
+    <t>high_delta</t>
+  </si>
+  <si>
+    <t>um</t>
+  </si>
+  <si>
+    <t>low_delta</t>
+  </si>
+  <si>
+    <t>dm</t>
+  </si>
+  <si>
+    <t>pdm</t>
+  </si>
+  <si>
+    <t>pdm_14_ema</t>
+  </si>
+  <si>
+    <t>pdm_14</t>
+  </si>
+  <si>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>atr_14</t>
+  </si>
+  <si>
+    <t>pdi_14</t>
+  </si>
+  <si>
+    <t>pdi</t>
+  </si>
+  <si>
+    <t>mdm</t>
+  </si>
+  <si>
+    <t>mdm_14_ema</t>
+  </si>
+  <si>
+    <t>mdm_14</t>
+  </si>
+  <si>
+    <t>mdi_14</t>
+  </si>
+  <si>
+    <t>mdi</t>
+  </si>
+  <si>
+    <t>dx_14</t>
+  </si>
+  <si>
+    <t>dx</t>
+  </si>
+  <si>
+    <t>dx_6_ema</t>
+  </si>
+  <si>
+    <t>adx</t>
+  </si>
+  <si>
+    <t>adx_6_ema</t>
+  </si>
+  <si>
+    <t>adxr</t>
+  </si>
+  <si>
     <t>sma8-16</t>
   </si>
   <si>
@@ -86,6 +152,9 @@
   </si>
   <si>
     <t>derivert</t>
+  </si>
+  <si>
+    <t>open_mean</t>
   </si>
   <si>
     <t>9:0</t>
@@ -575,13 +644,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X45"/>
+  <dimension ref="A1:AU45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:47">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,10 +723,79 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:47">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>116</v>
@@ -690,7 +828,7 @@
         <v>0.03341249711712787</v>
       </c>
       <c r="L2">
-        <v>0.009197043445387732</v>
+        <v>0.09197043445387729</v>
       </c>
       <c r="M2">
         <v>116</v>
@@ -717,21 +855,90 @@
         <v>116</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.00465116279069774</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.09302325581395282</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.00465116279069774</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.08837209302325509</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0.1813953488372079</v>
+      </c>
+      <c r="AC2">
+        <v>0.2095852023259272</v>
+      </c>
+      <c r="AD2">
+        <v>46.80103816625618</v>
+      </c>
+      <c r="AE2">
+        <v>46.80103816625618</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>42.97369280831273</v>
+      </c>
+      <c r="AJ2">
+        <v>42.97369280831273</v>
+      </c>
+      <c r="AK2">
+        <v>22.8171329874037</v>
+      </c>
+      <c r="AL2">
+        <v>22.8171329874037</v>
+      </c>
+      <c r="AM2">
+        <v>25.8028306025408</v>
+      </c>
+      <c r="AN2">
+        <v>0.008028306025407841</v>
+      </c>
+      <c r="AO2">
+        <v>29.31849769748461</v>
+      </c>
+      <c r="AP2">
+        <v>29.31849769748461</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:47">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <v>116</v>
@@ -802,10 +1009,79 @@
       <c r="X3">
         <v>0</v>
       </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>46.80103816625618</v>
+      </c>
+      <c r="AE3">
+        <v>46.80103816625618</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>42.97369280831273</v>
+      </c>
+      <c r="AJ3">
+        <v>42.97369280831273</v>
+      </c>
+      <c r="AK3">
+        <v>22.8171329874037</v>
+      </c>
+      <c r="AL3">
+        <v>22.8171329874037</v>
+      </c>
+      <c r="AM3">
+        <v>25.8028306025408</v>
+      </c>
+      <c r="AN3">
+        <v>0.008028306025407841</v>
+      </c>
+      <c r="AO3">
+        <v>29.31849769748461</v>
+      </c>
+      <c r="AP3">
+        <v>29.31849769748461</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>116</v>
+      </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:47">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>115.6</v>
@@ -838,7 +1114,7 @@
         <v>-0.5</v>
       </c>
       <c r="L4">
-        <v>-0.02050210374837428</v>
+        <v>-0.2050210374837428</v>
       </c>
       <c r="M4">
         <v>115.8666666666667</v>
@@ -865,21 +1141,90 @@
         <v>115.8666666666667</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-0.4000000000000057</v>
       </c>
       <c r="V4">
-        <v>-0.001149425287356287</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>-0.001149425287356287</v>
+        <v>-0.4000000000000057</v>
       </c>
       <c r="X4">
+        <v>0.4000000000000057</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0.4000000000000057</v>
+      </c>
+      <c r="AC4">
+        <v>0.2074074074074103</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0.4000000000000057</v>
+      </c>
+      <c r="AG4">
+        <v>0.1528013582342976</v>
+      </c>
+      <c r="AH4">
+        <v>0.1528013582342976</v>
+      </c>
+      <c r="AI4">
+        <v>73.67208343439245</v>
+      </c>
+      <c r="AJ4">
+        <v>73.67208343439245</v>
+      </c>
+      <c r="AK4">
+        <v>100</v>
+      </c>
+      <c r="AL4">
+        <v>100</v>
+      </c>
+      <c r="AM4">
+        <v>100</v>
+      </c>
+      <c r="AN4">
+        <v>0.75</v>
+      </c>
+      <c r="AO4">
+        <v>100</v>
+      </c>
+      <c r="AP4">
+        <v>100</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>-0.9195402298850297</v>
+      </c>
+      <c r="AS4">
+        <v>-0.9195402298850297</v>
+      </c>
+      <c r="AT4">
         <v>-0.003448275862068972</v>
       </c>
+      <c r="AU4">
+        <v>115.6</v>
+      </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:47">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>116.2</v>
@@ -912,7 +1257,7 @@
         <v>0.1122448979591837</v>
       </c>
       <c r="L5">
-        <v>-0.008631677049758681</v>
+        <v>-0.08631677049758681</v>
       </c>
       <c r="M5">
         <v>115.95</v>
@@ -939,21 +1284,90 @@
         <v>115.9333333333333</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.6000000000000085</v>
       </c>
       <c r="V5">
-        <v>0.0007192174913692728</v>
+        <v>0.6000000000000085</v>
       </c>
       <c r="W5">
-        <v>0.0007192174913692728</v>
+        <v>0.6000000000000085</v>
       </c>
       <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0.6000000000000085</v>
+      </c>
+      <c r="Z5">
+        <v>0.183556925308197</v>
+      </c>
+      <c r="AA5">
+        <v>0.183556925308197</v>
+      </c>
+      <c r="AB5">
+        <v>0.6000000000000085</v>
+      </c>
+      <c r="AC5">
+        <v>0.3480804387568606</v>
+      </c>
+      <c r="AD5">
+        <v>52.73405364683945</v>
+      </c>
+      <c r="AE5">
+        <v>52.73405364683945</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0.1060551124002916</v>
+      </c>
+      <c r="AH5">
+        <v>0.1060551124002916</v>
+      </c>
+      <c r="AI5">
+        <v>30.46856432928501</v>
+      </c>
+      <c r="AJ5">
+        <v>30.46856432928501</v>
+      </c>
+      <c r="AK5">
+        <v>26.76056338028169</v>
+      </c>
+      <c r="AL5">
+        <v>26.76056338028169</v>
+      </c>
+      <c r="AM5">
+        <v>57.27699530516432</v>
+      </c>
+      <c r="AN5">
+        <v>0.3227699530516432</v>
+      </c>
+      <c r="AO5">
+        <v>75.07824726134584</v>
+      </c>
+      <c r="AP5">
+        <v>75.07824726134584</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0.5753739930954183</v>
+      </c>
+      <c r="AS5">
+        <v>0.5753739930954183</v>
+      </c>
+      <c r="AT5">
         <v>0.00519031141868509</v>
       </c>
+      <c r="AU5">
+        <v>116.2</v>
+      </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:47">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>117</v>
@@ -986,7 +1400,7 @@
         <v>0.2914500288850358</v>
       </c>
       <c r="L6">
-        <v>0.0137166140531878</v>
+        <v>0.137166140531878</v>
       </c>
       <c r="M6">
         <v>116.16</v>
@@ -1013,21 +1427,90 @@
         <v>116.2666666666667</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.7999999999999972</v>
       </c>
       <c r="V6">
-        <v>0.001811125485122744</v>
+        <v>0.7999999999999972</v>
       </c>
       <c r="W6">
-        <v>0.001811125485122744</v>
+        <v>0.7999999999999972</v>
       </c>
       <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0.7999999999999972</v>
+      </c>
+      <c r="Z6">
+        <v>0.3443859802825188</v>
+      </c>
+      <c r="AA6">
+        <v>0.3443859802825188</v>
+      </c>
+      <c r="AB6">
+        <v>0.7999999999999972</v>
+      </c>
+      <c r="AC6">
+        <v>0.47391171993912</v>
+      </c>
+      <c r="AD6">
+        <v>72.66880429265593</v>
+      </c>
+      <c r="AE6">
+        <v>72.66880429265593</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0.07838549584881657</v>
+      </c>
+      <c r="AH6">
+        <v>0.07838549584881657</v>
+      </c>
+      <c r="AI6">
+        <v>16.54010495011311</v>
+      </c>
+      <c r="AJ6">
+        <v>16.54010495011311</v>
+      </c>
+      <c r="AK6">
+        <v>62.91826659352683</v>
+      </c>
+      <c r="AL6">
+        <v>62.91826659352683</v>
+      </c>
+      <c r="AM6">
+        <v>59.81297964580435</v>
+      </c>
+      <c r="AN6">
+        <v>0.3481297964580434</v>
+      </c>
+      <c r="AO6">
+        <v>68.21587925068957</v>
+      </c>
+      <c r="AP6">
+        <v>68.21587925068957</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>1.448900388098195</v>
+      </c>
+      <c r="AS6">
+        <v>1.448900388098195</v>
+      </c>
+      <c r="AT6">
         <v>0.006884681583476659</v>
       </c>
+      <c r="AU6">
+        <v>116.325</v>
+      </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:47">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <v>117</v>
@@ -1060,7 +1543,7 @@
         <v>0.291450028885036</v>
       </c>
       <c r="L7">
-        <v>0.0293022491667337</v>
+        <v>0.293022491667337</v>
       </c>
       <c r="M7">
         <v>116.3</v>
@@ -1090,18 +1573,87 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0.001205234159779689</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>0.001205234159779689</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0.2647012042994512</v>
+      </c>
+      <c r="AA7">
+        <v>0.2647012042994512</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0.3645879746113359</v>
+      </c>
+      <c r="AD7">
+        <v>72.60283463315879</v>
+      </c>
+      <c r="AE7">
+        <v>72.60283463315879</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0.06024848959812487</v>
+      </c>
+      <c r="AH7">
+        <v>0.06024848959812487</v>
+      </c>
+      <c r="AI7">
+        <v>16.52508963367537</v>
+      </c>
+      <c r="AJ7">
+        <v>16.52508963367537</v>
+      </c>
+      <c r="AK7">
+        <v>62.91826659352683</v>
+      </c>
+      <c r="AL7">
+        <v>62.91826659352683</v>
+      </c>
+      <c r="AM7">
+        <v>61.01243169880976</v>
+      </c>
+      <c r="AN7">
+        <v>0.3601243169880977</v>
+      </c>
+      <c r="AO7">
+        <v>65.43346651387112</v>
+      </c>
+      <c r="AP7">
+        <v>65.43346651387112</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0.9641873278237512</v>
+      </c>
+      <c r="AS7">
+        <v>0.9641873278237512</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>116.375</v>
+      </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:47">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>116.6</v>
@@ -1134,7 +1686,7 @@
         <v>0.1301129711004435</v>
       </c>
       <c r="L8">
-        <v>0.03502839998358574</v>
+        <v>0.3502839998358575</v>
       </c>
       <c r="M8">
         <v>116.3428571428571</v>
@@ -1161,21 +1713,90 @@
         <v>116.8666666666667</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>-0.4000000000000057</v>
       </c>
       <c r="V8">
-        <v>0.0003685050976538484</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0.0003685050976538484</v>
+        <v>-0.4000000000000057</v>
       </c>
       <c r="X8">
+        <v>0.4000000000000057</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0.2089230482288845</v>
+      </c>
+      <c r="AA8">
+        <v>0.2089230482288845</v>
+      </c>
+      <c r="AB8">
+        <v>0.4000000000000057</v>
+      </c>
+      <c r="AC8">
+        <v>0.3716347230038431</v>
+      </c>
+      <c r="AD8">
+        <v>56.21731105753645</v>
+      </c>
+      <c r="AE8">
+        <v>56.21731105753645</v>
+      </c>
+      <c r="AF8">
+        <v>0.4000000000000057</v>
+      </c>
+      <c r="AG8">
+        <v>0.1318413364178481</v>
+      </c>
+      <c r="AH8">
+        <v>0.1318413364178481</v>
+      </c>
+      <c r="AI8">
+        <v>35.47605437732057</v>
+      </c>
+      <c r="AJ8">
+        <v>35.47605437732057</v>
+      </c>
+      <c r="AK8">
+        <v>22.62023711513934</v>
+      </c>
+      <c r="AL8">
+        <v>22.62023711513934</v>
+      </c>
+      <c r="AM8">
+        <v>47.53784330597353</v>
+      </c>
+      <c r="AN8">
+        <v>0.2253784330597353</v>
+      </c>
+      <c r="AO8">
+        <v>59.15260241181556</v>
+      </c>
+      <c r="AP8">
+        <v>59.15260241181556</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0.2948040781230787</v>
+      </c>
+      <c r="AS8">
+        <v>0.2948040781230787</v>
+      </c>
+      <c r="AT8">
         <v>-0.003418803418803518</v>
       </c>
+      <c r="AU8">
+        <v>116.45</v>
+      </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:47">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>116.2</v>
@@ -1208,7 +1829,7 @@
         <v>0.01879130095414239</v>
       </c>
       <c r="L9">
-        <v>0.03333816186758608</v>
+        <v>0.3333816186758609</v>
       </c>
       <c r="M9">
         <v>116.325</v>
@@ -1235,21 +1856,90 @@
         <v>116.6</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>-0.3999999999999915</v>
       </c>
       <c r="V9">
-        <v>-0.0001534872298624146</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>-0.0001534872298624146</v>
+        <v>-0.3999999999999915</v>
       </c>
       <c r="X9">
+        <v>0.3999999999999915</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0.1680607764222141</v>
+      </c>
+      <c r="AA9">
+        <v>0.1680607764222141</v>
+      </c>
+      <c r="AB9">
+        <v>0.3999999999999915</v>
+      </c>
+      <c r="AC9">
+        <v>0.3766406397826873</v>
+      </c>
+      <c r="AD9">
+        <v>44.62098846241902</v>
+      </c>
+      <c r="AE9">
+        <v>44.62098846241902</v>
+      </c>
+      <c r="AF9">
+        <v>0.3999999999999915</v>
+      </c>
+      <c r="AG9">
+        <v>0.1842892223332523</v>
+      </c>
+      <c r="AH9">
+        <v>0.1842892223332523</v>
+      </c>
+      <c r="AI9">
+        <v>48.92972315456525</v>
+      </c>
+      <c r="AJ9">
+        <v>48.92972315456525</v>
+      </c>
+      <c r="AK9">
+        <v>4.605774363093111</v>
+      </c>
+      <c r="AL9">
+        <v>4.605774363093111</v>
+      </c>
+      <c r="AM9">
+        <v>33.39295028623325</v>
+      </c>
+      <c r="AN9">
+        <v>0.08392950286233253</v>
+      </c>
+      <c r="AO9">
+        <v>50.66553126630741</v>
+      </c>
+      <c r="AP9">
+        <v>50.66553126630741</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>-0.1227897838899317</v>
+      </c>
+      <c r="AS9">
+        <v>-0.1227897838899317</v>
+      </c>
+      <c r="AT9">
         <v>-0.003430531732418474</v>
       </c>
+      <c r="AU9">
+        <v>116.5</v>
+      </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:47">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B10">
         <v>116.4</v>
@@ -1282,7 +1972,7 @@
         <v>0.05972937461930239</v>
       </c>
       <c r="L10">
-        <v>0.03055859176904163</v>
+        <v>0.3055859176904163</v>
       </c>
       <c r="M10">
         <v>116.375</v>
@@ -1309,21 +1999,90 @@
         <v>116.4</v>
       </c>
       <c r="U10">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="V10">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="W10">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="Z10">
+        <v>0.1739415299208425</v>
+      </c>
+      <c r="AA10">
+        <v>0.1739415299208425</v>
+      </c>
+      <c r="AB10">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="AC10">
+        <v>0.3484305440972891</v>
+      </c>
+      <c r="AD10">
+        <v>49.9214356684741</v>
+      </c>
+      <c r="AE10">
+        <v>49.9214356684741</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0.1503572926369572</v>
+      </c>
+      <c r="AH10">
+        <v>0.1503572926369572</v>
+      </c>
+      <c r="AI10">
+        <v>43.1527302023712</v>
+      </c>
+      <c r="AJ10">
+        <v>43.1527302023712</v>
+      </c>
+      <c r="AK10">
+        <v>7.272378326221615</v>
+      </c>
+      <c r="AL10">
+        <v>7.272378326221615</v>
+      </c>
+      <c r="AM10">
+        <v>25.14775317394616</v>
+      </c>
+      <c r="AN10">
+        <v>0.001477531739461635</v>
+      </c>
+      <c r="AO10">
+        <v>42.61061154398193</v>
+      </c>
+      <c r="AP10">
+        <v>42.61061154398193</v>
+      </c>
+      <c r="AQ10">
         <v>0.0416666666666714</v>
       </c>
-      <c r="V10">
-        <v>7.163836951074032E-05</v>
-      </c>
-      <c r="W10">
-        <v>7.163836951074032E-05</v>
-      </c>
-      <c r="X10">
+      <c r="AR10">
+        <v>0.05731069560859225</v>
+      </c>
+      <c r="AS10">
+        <v>0.05731069560859225</v>
+      </c>
+      <c r="AT10">
         <v>0.001721170395869276</v>
       </c>
+      <c r="AU10">
+        <v>116.475</v>
+      </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:47">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B11">
         <v>116.6</v>
@@ -1356,7 +2115,7 @@
         <v>0.09591553337953473</v>
       </c>
       <c r="L11">
-        <v>0.02869289755837548</v>
+        <v>0.2869289755837549</v>
       </c>
       <c r="M11">
         <v>116.45</v>
@@ -1383,21 +2142,90 @@
         <v>116.4</v>
       </c>
       <c r="U11">
+        <v>0.1999999999999886</v>
+      </c>
+      <c r="V11">
+        <v>0.1999999999999886</v>
+      </c>
+      <c r="W11">
+        <v>0.1999999999999886</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0.1999999999999886</v>
+      </c>
+      <c r="Z11">
+        <v>0.1785075902004863</v>
+      </c>
+      <c r="AA11">
+        <v>0.1785075902004863</v>
+      </c>
+      <c r="AB11">
+        <v>0.1999999999999886</v>
+      </c>
+      <c r="AC11">
+        <v>0.3266484986693206</v>
+      </c>
+      <c r="AD11">
+        <v>54.64822000642248</v>
+      </c>
+      <c r="AE11">
+        <v>54.64822000642248</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0.1240111387921919</v>
+      </c>
+      <c r="AH11">
+        <v>0.1240111387921919</v>
+      </c>
+      <c r="AI11">
+        <v>37.96470496493337</v>
+      </c>
+      <c r="AJ11">
+        <v>37.96470496493337</v>
+      </c>
+      <c r="AK11">
+        <v>18.01424050330894</v>
+      </c>
+      <c r="AL11">
+        <v>18.01424050330894</v>
+      </c>
+      <c r="AM11">
+        <v>22.96146287555825</v>
+      </c>
+      <c r="AN11">
+        <v>-0.02038537124441753</v>
+      </c>
+      <c r="AO11">
+        <v>36.58850923775316</v>
+      </c>
+      <c r="AP11">
+        <v>36.58850923775316</v>
+      </c>
+      <c r="AQ11">
         <v>0.09000000000001762</v>
       </c>
-      <c r="V11">
-        <v>0.0002292263610315093</v>
-      </c>
-      <c r="W11">
-        <v>0.0002292263610315093</v>
-      </c>
-      <c r="X11">
+      <c r="AR11">
+        <v>0.1833810888252074</v>
+      </c>
+      <c r="AS11">
+        <v>0.1833810888252074</v>
+      </c>
+      <c r="AT11">
         <v>0.001718213058419238</v>
       </c>
+      <c r="AU11">
+        <v>116.35</v>
+      </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:47">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B12">
         <v>116</v>
@@ -1430,7 +2258,7 @@
         <v>-0.02688205638703722</v>
       </c>
       <c r="L12">
-        <v>0.02405271858384357</v>
+        <v>0.2405271858384357</v>
       </c>
       <c r="M12">
         <v>116.5</v>
@@ -1457,21 +2285,90 @@
         <v>116.3333333333333</v>
       </c>
       <c r="U12">
+        <v>-0.5999999999999943</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>-0.5999999999999943</v>
+      </c>
+      <c r="X12">
+        <v>0.5999999999999943</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0.1484864342023133</v>
+      </c>
+      <c r="AA12">
+        <v>0.1484864342023133</v>
+      </c>
+      <c r="AB12">
+        <v>0.5999999999999943</v>
+      </c>
+      <c r="AC12">
+        <v>0.3639528004483032</v>
+      </c>
+      <c r="AD12">
+        <v>40.79826670365316</v>
+      </c>
+      <c r="AE12">
+        <v>40.79826670365316</v>
+      </c>
+      <c r="AF12">
+        <v>0.5999999999999943</v>
+      </c>
+      <c r="AG12">
+        <v>0.2040622774561724</v>
+      </c>
+      <c r="AH12">
+        <v>0.2040622774561724</v>
+      </c>
+      <c r="AI12">
+        <v>56.06833556571517</v>
+      </c>
+      <c r="AJ12">
+        <v>56.06833556571517</v>
+      </c>
+      <c r="AK12">
+        <v>15.76401825223387</v>
+      </c>
+      <c r="AL12">
+        <v>15.76401825223387</v>
+      </c>
+      <c r="AM12">
+        <v>20.80045687766556</v>
+      </c>
+      <c r="AN12">
+        <v>-0.04199543122334437</v>
+      </c>
+      <c r="AO12">
+        <v>31.84820519503384</v>
+      </c>
+      <c r="AP12">
+        <v>31.84820519503384</v>
+      </c>
+      <c r="AQ12">
         <v>0.1727272727272862</v>
       </c>
-      <c r="V12">
-        <v>-0.0002812587893371576</v>
-      </c>
-      <c r="W12">
-        <v>-0.0002812587893371576</v>
-      </c>
-      <c r="X12">
+      <c r="AR12">
+        <v>-0.2250070314697261</v>
+      </c>
+      <c r="AS12">
+        <v>-0.2250070314697261</v>
+      </c>
+      <c r="AT12">
         <v>-0.005145797598627766</v>
       </c>
+      <c r="AU12">
+        <v>116.225</v>
+      </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:47">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B13">
         <v>116</v>
@@ -1504,7 +2401,7 @@
         <v>-0.02688205638703722</v>
       </c>
       <c r="L13">
-        <v>0.01857498906683953</v>
+        <v>0.1857498906683953</v>
       </c>
       <c r="M13">
         <v>116.475</v>
@@ -1531,21 +2428,90 @@
         <v>116.2</v>
       </c>
       <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0.1243550582355013</v>
+      </c>
+      <c r="AA13">
+        <v>0.1243550582355013</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0.3173173707469629</v>
+      </c>
+      <c r="AD13">
+        <v>39.18948967173476</v>
+      </c>
+      <c r="AE13">
+        <v>39.18948967173476</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0.1708989547298052</v>
+      </c>
+      <c r="AH13">
+        <v>0.1708989547298052</v>
+      </c>
+      <c r="AI13">
+        <v>53.85742177540115</v>
+      </c>
+      <c r="AJ13">
+        <v>53.85742177540115</v>
+      </c>
+      <c r="AK13">
+        <v>15.76401825223387</v>
+      </c>
+      <c r="AL13">
+        <v>15.76401825223387</v>
+      </c>
+      <c r="AM13">
+        <v>19.3099450138797</v>
+      </c>
+      <c r="AN13">
+        <v>-0.05690054986120302</v>
+      </c>
+      <c r="AO13">
+        <v>28.13756223060334</v>
+      </c>
+      <c r="AP13">
+        <v>28.13756223060334</v>
+      </c>
+      <c r="AQ13">
         <v>0.1750000000000114</v>
       </c>
-      <c r="V13">
-        <v>-0.0002344482650827873</v>
-      </c>
-      <c r="W13">
-        <v>-0.0002344482650827873</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
+      <c r="AR13">
+        <v>-0.1875586120662298</v>
+      </c>
+      <c r="AS13">
+        <v>-0.1875586120662298</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>116.15</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:47">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B14">
         <v>116</v>
@@ -1578,7 +2544,7 @@
         <v>-0.02688205638703711</v>
       </c>
       <c r="L14">
-        <v>0.01316569658541249</v>
+        <v>0.1316569658541249</v>
       </c>
       <c r="M14">
         <v>116.35</v>
@@ -1605,21 +2571,90 @@
         <v>116</v>
       </c>
       <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0.1047184521215203</v>
+      </c>
+      <c r="AA14">
+        <v>0.1047184521215203</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0.2788395884007285</v>
+      </c>
+      <c r="AD14">
+        <v>37.55508775569784</v>
+      </c>
+      <c r="AE14">
+        <v>37.55508775569784</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0.1439127146287796</v>
+      </c>
+      <c r="AH14">
+        <v>0.1439127146287796</v>
+      </c>
+      <c r="AI14">
+        <v>51.6112921605516</v>
+      </c>
+      <c r="AJ14">
+        <v>51.6112921605516</v>
+      </c>
+      <c r="AK14">
+        <v>15.76401825223387</v>
+      </c>
+      <c r="AL14">
+        <v>15.76401825223387</v>
+      </c>
+      <c r="AM14">
+        <v>18.27117160166907</v>
+      </c>
+      <c r="AN14">
+        <v>-0.06728828398330924</v>
+      </c>
+      <c r="AO14">
+        <v>25.24721932485647</v>
+      </c>
+      <c r="AP14">
+        <v>25.24721932485647</v>
+      </c>
+      <c r="AQ14">
         <v>0.07307692307693969</v>
       </c>
-      <c r="V14">
-        <v>-0.0001984258218136192</v>
-      </c>
-      <c r="W14">
-        <v>-0.0001984258218136192</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
+      <c r="AR14">
+        <v>-0.1587406574508954</v>
+      </c>
+      <c r="AS14">
+        <v>-0.1587406574508954</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>116.125</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:47">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B15">
         <v>116</v>
@@ -1652,7 +2687,7 @@
         <v>-0.02688205638703722</v>
       </c>
       <c r="L15">
-        <v>0.008233573634133353</v>
+        <v>0.08233573634133352</v>
       </c>
       <c r="M15">
         <v>116.225</v>
@@ -1679,21 +2714,90 @@
         <v>116</v>
       </c>
       <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0.088579224269212</v>
+      </c>
+      <c r="AA15">
+        <v>0.088579224269212</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0.246632519035155</v>
+      </c>
+      <c r="AD15">
+        <v>35.91546833148386</v>
+      </c>
+      <c r="AE15">
+        <v>35.91546833148386</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0.1217328595489624</v>
+      </c>
+      <c r="AH15">
+        <v>0.1217328595489624</v>
+      </c>
+      <c r="AI15">
+        <v>49.35799221659437</v>
+      </c>
+      <c r="AJ15">
+        <v>49.35799221659437</v>
+      </c>
+      <c r="AK15">
+        <v>15.76401825223387</v>
+      </c>
+      <c r="AL15">
+        <v>15.76401825223387</v>
+      </c>
+      <c r="AM15">
+        <v>17.54198017331593</v>
+      </c>
+      <c r="AN15">
+        <v>-0.0745801982668407</v>
+      </c>
+      <c r="AO15">
+        <v>23.00619392288808</v>
+      </c>
+      <c r="AP15">
+        <v>23.00619392288808</v>
+      </c>
+      <c r="AQ15">
         <v>-0.03214285714284415</v>
       </c>
-      <c r="V15">
-        <v>-0.00017011303065817</v>
-      </c>
-      <c r="W15">
-        <v>-0.00017011303065817</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
+      <c r="AR15">
+        <v>-0.136090424526536</v>
+      </c>
+      <c r="AS15">
+        <v>-0.136090424526536</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>116.075</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:47">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B16">
         <v>116</v>
@@ -1726,7 +2830,7 @@
         <v>-0.02688205638703711</v>
       </c>
       <c r="L16">
-        <v>0.003940212696001864</v>
+        <v>0.03940212696001864</v>
       </c>
       <c r="M16">
         <v>116.15</v>
@@ -1753,21 +2857,90 @@
         <v>116</v>
       </c>
       <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0.07520537754721086</v>
+      </c>
+      <c r="AA16">
+        <v>0.07520537754721086</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0.2193480650742147</v>
+      </c>
+      <c r="AD16">
+        <v>34.28586321095</v>
+      </c>
+      <c r="AE16">
+        <v>34.28586321095</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0.1033534187932978</v>
+      </c>
+      <c r="AH16">
+        <v>0.1033534187932978</v>
+      </c>
+      <c r="AI16">
+        <v>47.11845475287368</v>
+      </c>
+      <c r="AJ16">
+        <v>47.11845475287368</v>
+      </c>
+      <c r="AK16">
+        <v>15.76401825223389</v>
+      </c>
+      <c r="AL16">
+        <v>15.76401825223389</v>
+      </c>
+      <c r="AM16">
+        <v>17.02750924179631</v>
+      </c>
+      <c r="AN16">
+        <v>-0.07972490758203693</v>
+      </c>
+      <c r="AO16">
+        <v>21.27620216059461</v>
+      </c>
+      <c r="AP16">
+        <v>21.27620216059461</v>
+      </c>
+      <c r="AQ16">
         <v>-0.0899999999999892</v>
       </c>
-      <c r="V16">
-        <v>-0.0001474563774883642</v>
-      </c>
-      <c r="W16">
-        <v>-0.0001474563774883642</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
+      <c r="AR16">
+        <v>-0.1179651019906913</v>
+      </c>
+      <c r="AS16">
+        <v>-0.1179651019906913</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>116.075</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:47">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B17">
         <v>116</v>
@@ -1800,7 +2973,7 @@
         <v>-0.02688205638703722</v>
       </c>
       <c r="L17">
-        <v>0.0003228167558035354</v>
+        <v>0.003228167558035354</v>
       </c>
       <c r="M17">
         <v>116.125</v>
@@ -1827,21 +3000,90 @@
         <v>116</v>
       </c>
       <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0.06404765388240317</v>
+      </c>
+      <c r="AA17">
+        <v>0.06404765388240317</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0.1959973679545914</v>
+      </c>
+      <c r="AD17">
+        <v>32.67781325371764</v>
+      </c>
+      <c r="AE17">
+        <v>32.67781325371764</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0.08801955671694781</v>
+      </c>
+      <c r="AH17">
+        <v>0.08801955671694781</v>
+      </c>
+      <c r="AI17">
+        <v>44.90854016842724</v>
+      </c>
+      <c r="AJ17">
+        <v>44.90854016842724</v>
+      </c>
+      <c r="AK17">
+        <v>15.76401825223388</v>
+      </c>
+      <c r="AL17">
+        <v>15.76401825223388</v>
+      </c>
+      <c r="AM17">
+        <v>16.6632335996993</v>
+      </c>
+      <c r="AN17">
+        <v>-0.08336766400300699</v>
+      </c>
+      <c r="AO17">
+        <v>19.94624247083425</v>
+      </c>
+      <c r="AP17">
+        <v>19.94624247083425</v>
+      </c>
+      <c r="AQ17">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="V17">
-        <v>-0.0001290433585684481</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
+      <c r="AR17">
+        <v>-0.1032346868547585</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>116.15</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:47">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B18">
         <v>116</v>
@@ -1874,7 +3116,7 @@
         <v>-0.02688205638703711</v>
       </c>
       <c r="L18">
-        <v>-0.002643358405534953</v>
+        <v>-0.02643358405534953</v>
       </c>
       <c r="M18">
         <v>116.075</v>
@@ -1901,21 +3143,90 @@
         <v>116</v>
       </c>
       <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0.05468603331424039</v>
+      </c>
+      <c r="AA18">
+        <v>0.05468603331424039</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0.1758385601121306</v>
+      </c>
+      <c r="AD18">
+        <v>31.10013712542209</v>
+      </c>
+      <c r="AE18">
+        <v>31.10013712542209</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0.07515404732491149</v>
+      </c>
+      <c r="AH18">
+        <v>0.07515404732491149</v>
+      </c>
+      <c r="AI18">
+        <v>42.74036779929637</v>
+      </c>
+      <c r="AJ18">
+        <v>42.74036779929637</v>
+      </c>
+      <c r="AK18">
+        <v>15.76401825223388</v>
+      </c>
+      <c r="AL18">
+        <v>15.76401825223388</v>
+      </c>
+      <c r="AM18">
+        <v>16.40465275757603</v>
+      </c>
+      <c r="AN18">
+        <v>-0.0859534724242397</v>
+      </c>
+      <c r="AO18">
+        <v>18.92781317790602</v>
+      </c>
+      <c r="AP18">
+        <v>18.92781317790602</v>
+      </c>
+      <c r="AQ18">
         <v>-0.1499999999999915</v>
       </c>
-      <c r="V18">
-        <v>-0.0001138764819759164</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
+      <c r="AR18">
+        <v>-0.0911011855807331</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>116.225</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:47">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="B19">
         <v>116.6</v>
@@ -1948,7 +3259,7 @@
         <v>0.0931664284162671</v>
       </c>
       <c r="L19">
-        <v>-0.00282403629390672</v>
+        <v>-0.0282403629390672</v>
       </c>
       <c r="M19">
         <v>116.075</v>
@@ -1975,21 +3286,90 @@
         <v>116.2</v>
       </c>
       <c r="U19">
+        <v>0.5999999999999943</v>
+      </c>
+      <c r="V19">
+        <v>0.5999999999999943</v>
+      </c>
+      <c r="W19">
+        <v>0.5999999999999943</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0.5999999999999943</v>
+      </c>
+      <c r="Z19">
+        <v>0.1333827332898259</v>
+      </c>
+      <c r="AA19">
+        <v>0.1333827332898259</v>
+      </c>
+      <c r="AB19">
+        <v>0.5999999999999943</v>
+      </c>
+      <c r="AC19">
+        <v>0.2181354673187115</v>
+      </c>
+      <c r="AD19">
+        <v>61.14674286091416</v>
+      </c>
+      <c r="AE19">
+        <v>61.14674286091416</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0.06430823028078694</v>
+      </c>
+      <c r="AH19">
+        <v>0.06430823028078694</v>
+      </c>
+      <c r="AI19">
+        <v>29.48086850398703</v>
+      </c>
+      <c r="AJ19">
+        <v>29.48086850398703</v>
+      </c>
+      <c r="AK19">
+        <v>34.94064764592359</v>
+      </c>
+      <c r="AL19">
+        <v>34.94064764592359</v>
+      </c>
+      <c r="AM19">
+        <v>21.7250798604275</v>
+      </c>
+      <c r="AN19">
+        <v>-0.03274920139572499</v>
+      </c>
+      <c r="AO19">
+        <v>19.7307187441428</v>
+      </c>
+      <c r="AP19">
+        <v>19.7307187441428</v>
+      </c>
+      <c r="AQ19">
         <v>-0.1875000000000142</v>
       </c>
-      <c r="V19">
-        <v>0.000185597624350331</v>
-      </c>
-      <c r="W19">
-        <v>0.0005735260380821394</v>
-      </c>
-      <c r="X19">
+      <c r="AR19">
+        <v>0.1484780994802648</v>
+      </c>
+      <c r="AS19">
+        <v>0.4588208304657115</v>
+      </c>
+      <c r="AT19">
         <v>0.005172413793103292</v>
       </c>
+      <c r="AU19">
+        <v>116.3</v>
+      </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:47">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B20">
         <v>116.6</v>
@@ -2022,7 +3402,7 @@
         <v>0.0931664284162671</v>
       </c>
       <c r="L20">
-        <v>-0.001434424327996126</v>
+        <v>-0.01434424327996126</v>
       </c>
       <c r="M20">
         <v>116.15</v>
@@ -2049,21 +3429,90 @@
         <v>116.4</v>
       </c>
       <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0.1143427546202457</v>
+      </c>
+      <c r="AA20">
+        <v>0.1143427546202457</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0.1969816881525303</v>
+      </c>
+      <c r="AD20">
+        <v>58.04740313308001</v>
+      </c>
+      <c r="AE20">
+        <v>58.04740313308001</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0.05512842639894498</v>
+      </c>
+      <c r="AH20">
+        <v>0.05512842639894498</v>
+      </c>
+      <c r="AI20">
+        <v>27.98657424250369</v>
+      </c>
+      <c r="AJ20">
+        <v>27.98657424250369</v>
+      </c>
+      <c r="AK20">
+        <v>34.94064764592358</v>
+      </c>
+      <c r="AL20">
+        <v>34.94064764592358</v>
+      </c>
+      <c r="AM20">
+        <v>25.51338055349134</v>
+      </c>
+      <c r="AN20">
+        <v>0.005133805534913438</v>
+      </c>
+      <c r="AO20">
+        <v>21.38834421250527</v>
+      </c>
+      <c r="AP20">
+        <v>21.38834421250527</v>
+      </c>
+      <c r="AQ20">
         <v>-0.1750000000000114</v>
       </c>
-      <c r="V20">
-        <v>0.0001660302174997241</v>
-      </c>
-      <c r="W20">
-        <v>0.0002292789178033328</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
+      <c r="AR20">
+        <v>0.1328241739997793</v>
+      </c>
+      <c r="AS20">
+        <v>0.1834231342426662</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>116.375</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:47">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="B21">
         <v>116.6</v>
@@ -2096,7 +3545,7 @@
         <v>0.0931664284162671</v>
       </c>
       <c r="L21">
-        <v>0.0007425909458291955</v>
+        <v>0.007425909458291954</v>
       </c>
       <c r="M21">
         <v>116.225</v>
@@ -2123,21 +3572,90 @@
         <v>116.6</v>
       </c>
       <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0.09817289180568027</v>
+      </c>
+      <c r="AA21">
+        <v>0.09817289180568027</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0.1783551549395035</v>
+      </c>
+      <c r="AD21">
+        <v>55.04348435512257</v>
+      </c>
+      <c r="AE21">
+        <v>55.04348435512257</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0.04733240036288888</v>
+      </c>
+      <c r="AH21">
+        <v>0.04733240036288888</v>
+      </c>
+      <c r="AI21">
+        <v>26.5382855790984</v>
+      </c>
+      <c r="AJ21">
+        <v>26.5382855790984</v>
+      </c>
+      <c r="AK21">
+        <v>34.94064764592359</v>
+      </c>
+      <c r="AL21">
+        <v>34.94064764592359</v>
+      </c>
+      <c r="AM21">
+        <v>28.21321001704291</v>
+      </c>
+      <c r="AN21">
+        <v>0.03213210017042917</v>
+      </c>
+      <c r="AO21">
+        <v>23.34288454781282</v>
+      </c>
+      <c r="AP21">
+        <v>23.34288454781282</v>
+      </c>
+      <c r="AQ21">
         <v>-0.125</v>
       </c>
-      <c r="V21">
-        <v>0.000149402390438258</v>
-      </c>
-      <c r="W21">
-        <v>-0.0002292263610315093</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
+      <c r="AR21">
+        <v>0.1195219123506064</v>
+      </c>
+      <c r="AS21">
+        <v>-0.1833810888252074</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>116.4</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:47">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B22">
         <v>116.6</v>
@@ -2170,7 +3688,7 @@
         <v>0.0931664284162671</v>
       </c>
       <c r="L22">
-        <v>0.003208516706351689</v>
+        <v>0.03208516706351689</v>
       </c>
       <c r="M22">
         <v>116.3</v>
@@ -2197,21 +3715,90 @@
         <v>116.6</v>
       </c>
       <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0.08440101140479482</v>
+      </c>
+      <c r="AA22">
+        <v>0.08440101140479482</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0.1618712335157905</v>
+      </c>
+      <c r="AD22">
+        <v>52.14083415047401</v>
+      </c>
+      <c r="AE22">
+        <v>52.14083415047401</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0.04069252101437389</v>
+      </c>
+      <c r="AH22">
+        <v>0.04069252101437389</v>
+      </c>
+      <c r="AI22">
+        <v>25.1388218465663</v>
+      </c>
+      <c r="AJ22">
+        <v>25.1388218465663</v>
+      </c>
+      <c r="AK22">
+        <v>34.94064764592358</v>
+      </c>
+      <c r="AL22">
+        <v>34.94064764592358</v>
+      </c>
+      <c r="AM22">
+        <v>30.13855668831511</v>
+      </c>
+      <c r="AN22">
+        <v>0.0513855668831511</v>
+      </c>
+      <c r="AO22">
+        <v>25.28775946996802</v>
+      </c>
+      <c r="AP22">
+        <v>25.28775946996802</v>
+      </c>
+      <c r="AQ22">
         <v>-0.02500000000000568</v>
       </c>
-      <c r="V22">
-        <v>0.0001351533991078568</v>
-      </c>
-      <c r="W22">
-        <v>-0.0002292789178034438</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
+      <c r="AR22">
+        <v>0.1081227192862855</v>
+      </c>
+      <c r="AS22">
+        <v>-0.183423134242755</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>116.475</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:47">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="B23">
         <v>116.6</v>
@@ -2244,7 +3831,7 @@
         <v>0.0931664284162671</v>
       </c>
       <c r="L23">
-        <v>0.005653771369865092</v>
+        <v>0.05653771369865092</v>
       </c>
       <c r="M23">
         <v>116.375</v>
@@ -2271,21 +3858,90 @@
         <v>116.6</v>
       </c>
       <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0.07264277956951144</v>
+      </c>
+      <c r="AA23">
+        <v>0.07264277956951144</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0.1472183990460484</v>
+      </c>
+      <c r="AD23">
+        <v>49.34354675789506</v>
+      </c>
+      <c r="AE23">
+        <v>49.34354675789506</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0.03502348828496317</v>
+      </c>
+      <c r="AH23">
+        <v>0.03502348828496317</v>
+      </c>
+      <c r="AI23">
+        <v>23.79015701292077</v>
+      </c>
+      <c r="AJ23">
+        <v>23.79015701292077</v>
+      </c>
+      <c r="AK23">
+        <v>34.94064764592358</v>
+      </c>
+      <c r="AL23">
+        <v>34.94064764592358</v>
+      </c>
+      <c r="AM23">
+        <v>31.51222447903962</v>
+      </c>
+      <c r="AN23">
+        <v>0.06512224479039624</v>
+      </c>
+      <c r="AO23">
+        <v>27.06830614701632</v>
+      </c>
+      <c r="AP23">
+        <v>27.06830614701632</v>
+      </c>
+      <c r="AQ23">
         <v>0.07500000000000284</v>
       </c>
-      <c r="V23">
-        <v>0.0001228501228500711</v>
-      </c>
-      <c r="W23">
-        <v>-1.110223024625157E-16</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
+      <c r="AR23">
+        <v>0.0982800982800569</v>
+      </c>
+      <c r="AS23">
+        <v>-8.881784197001252E-14</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>116.575</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:47">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B24">
         <v>116.2</v>
@@ -2318,7 +3974,7 @@
         <v>-0.004168385557213494</v>
       </c>
       <c r="L24">
-        <v>0.006557658506047827</v>
+        <v>0.06557658506047827</v>
       </c>
       <c r="M24">
         <v>116.4</v>
@@ -2345,21 +4001,90 @@
         <v>116.4666666666667</v>
       </c>
       <c r="U24">
+        <v>-0.3999999999999915</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>-0.3999999999999915</v>
+      </c>
+      <c r="X24">
+        <v>0.3999999999999915</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0.06258279669076362</v>
+      </c>
+      <c r="AA24">
+        <v>0.06258279669076362</v>
+      </c>
+      <c r="AB24">
+        <v>0.3999999999999915</v>
+      </c>
+      <c r="AC24">
+        <v>0.1696718769090694</v>
+      </c>
+      <c r="AD24">
+        <v>36.88460211016763</v>
+      </c>
+      <c r="AE24">
+        <v>36.88460211016763</v>
+      </c>
+      <c r="AF24">
+        <v>0.3999999999999915</v>
+      </c>
+      <c r="AG24">
+        <v>0.08556749941389996</v>
+      </c>
+      <c r="AH24">
+        <v>0.08556749941389996</v>
+      </c>
+      <c r="AI24">
+        <v>50.43116217766443</v>
+      </c>
+      <c r="AJ24">
+        <v>50.43116217766443</v>
+      </c>
+      <c r="AK24">
+        <v>15.51444939866901</v>
+      </c>
+      <c r="AL24">
+        <v>15.51444939866901</v>
+      </c>
+      <c r="AM24">
+        <v>26.93752612526913</v>
+      </c>
+      <c r="AN24">
+        <v>0.01937526125269129</v>
+      </c>
+      <c r="AO24">
+        <v>27.03090849970679</v>
+      </c>
+      <c r="AP24">
+        <v>27.03090849970679</v>
+      </c>
+      <c r="AQ24">
         <v>0.125</v>
       </c>
-      <c r="V24">
-        <v>-3.738457512414417E-05</v>
-      </c>
-      <c r="W24">
-        <v>2.220446049250313E-16</v>
-      </c>
-      <c r="X24">
+      <c r="AR24">
+        <v>-0.02990766009931534</v>
+      </c>
+      <c r="AS24">
+        <v>1.77635683940025E-13</v>
+      </c>
+      <c r="AT24">
         <v>-0.003430531732418474</v>
       </c>
+      <c r="AU24">
+        <v>116.6</v>
+      </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:47">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B25">
         <v>116.6</v>
@@ -2392,7 +4117,7 @@
         <v>0.07009001150266558</v>
       </c>
       <c r="L25">
-        <v>0.00779796759524303</v>
+        <v>0.0779796759524303</v>
       </c>
       <c r="M25">
         <v>116.475</v>
@@ -2419,21 +4144,90 @@
         <v>116.4666666666667</v>
       </c>
       <c r="U25">
+        <v>0.3999999999999915</v>
+      </c>
+      <c r="V25">
+        <v>0.3999999999999915</v>
+      </c>
+      <c r="W25">
+        <v>0.3999999999999915</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0.3999999999999915</v>
+      </c>
+      <c r="Z25">
+        <v>0.1090707182498441</v>
+      </c>
+      <c r="AA25">
+        <v>0.1090707182498441</v>
+      </c>
+      <c r="AB25">
+        <v>0.3999999999999915</v>
+      </c>
+      <c r="AC25">
+        <v>0.1897810708253199</v>
+      </c>
+      <c r="AD25">
+        <v>57.47186364557716</v>
+      </c>
+      <c r="AE25">
+        <v>57.47186364557716</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0.07377836963110547</v>
+      </c>
+      <c r="AH25">
+        <v>0.07377836963110547</v>
+      </c>
+      <c r="AI25">
+        <v>38.87551551388033</v>
+      </c>
+      <c r="AJ25">
+        <v>38.87551551388033</v>
+      </c>
+      <c r="AK25">
+        <v>19.30135338805571</v>
+      </c>
+      <c r="AL25">
+        <v>19.30135338805571</v>
+      </c>
+      <c r="AM25">
+        <v>24.75443124769841</v>
+      </c>
+      <c r="AN25">
+        <v>-0.002455687523015893</v>
+      </c>
+      <c r="AO25">
+        <v>26.38008956215885</v>
+      </c>
+      <c r="AP25">
+        <v>26.38008956215885</v>
+      </c>
+      <c r="AQ25">
         <v>0.1749999999999972</v>
       </c>
-      <c r="V25">
-        <v>0.0001090424206171559</v>
-      </c>
-      <c r="W25">
-        <v>0.0001146657493404923</v>
-      </c>
-      <c r="X25">
+      <c r="AR25">
+        <v>0.08723393649372468</v>
+      </c>
+      <c r="AS25">
+        <v>0.09173259947239387</v>
+      </c>
+      <c r="AT25">
         <v>0.00344234079173833</v>
       </c>
+      <c r="AU25">
+        <v>116.625</v>
+      </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:47">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B26">
         <v>116.8</v>
@@ -2466,7 +4260,7 @@
         <v>0.1010191888645281</v>
       </c>
       <c r="L26">
-        <v>0.009777573208036794</v>
+        <v>0.09777573208036794</v>
       </c>
       <c r="M26">
         <v>116.575</v>
@@ -2493,21 +4287,90 @@
         <v>116.5333333333333</v>
       </c>
       <c r="U26">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="V26">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="W26">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="Z26">
+        <v>0.1215431635360423</v>
+      </c>
+      <c r="AA26">
+        <v>0.1215431635360423</v>
+      </c>
+      <c r="AB26">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="AC26">
+        <v>0.1906593072836592</v>
+      </c>
+      <c r="AD26">
+        <v>63.74887503142597</v>
+      </c>
+      <c r="AE26">
+        <v>63.74887503142597</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0.06365845379302322</v>
+      </c>
+      <c r="AH26">
+        <v>0.06365845379302322</v>
+      </c>
+      <c r="AI26">
+        <v>33.38858967861108</v>
+      </c>
+      <c r="AJ26">
+        <v>33.38858967861108</v>
+      </c>
+      <c r="AK26">
+        <v>31.25496989595387</v>
+      </c>
+      <c r="AL26">
+        <v>31.25496989595387</v>
+      </c>
+      <c r="AM26">
+        <v>26.61253733442928</v>
+      </c>
+      <c r="AN26">
+        <v>0.01612537334429281</v>
+      </c>
+      <c r="AO26">
+        <v>26.44653215159236</v>
+      </c>
+      <c r="AP26">
+        <v>26.44653215159236</v>
+      </c>
+      <c r="AQ26">
         <v>0.2499999999999858</v>
       </c>
-      <c r="V26">
-        <v>0.0001690907788205465</v>
-      </c>
-      <c r="W26">
-        <v>0.0001146526026141181</v>
-      </c>
-      <c r="X26">
+      <c r="AR26">
+        <v>0.1352726230564372</v>
+      </c>
+      <c r="AS26">
+        <v>0.09172208209129451</v>
+      </c>
+      <c r="AT26">
         <v>0.001715265866209181</v>
       </c>
+      <c r="AU26">
+        <v>116.625</v>
+      </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:47">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B27">
         <v>116.8</v>
@@ -2540,7 +4403,7 @@
         <v>0.1010191888645281</v>
       </c>
       <c r="L27">
-        <v>0.01202268556737085</v>
+        <v>0.1202268556737085</v>
       </c>
       <c r="M27">
         <v>116.6</v>
@@ -2567,21 +4430,90 @@
         <v>116.7333333333333</v>
       </c>
       <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0.1049351813278507</v>
+      </c>
+      <c r="AA27">
+        <v>0.1049351813278507</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0.17450805386146</v>
+      </c>
+      <c r="AD27">
+        <v>60.13199907160591</v>
+      </c>
+      <c r="AE27">
+        <v>60.13199907160591</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0.0549599927917016</v>
+      </c>
+      <c r="AH27">
+        <v>0.0549599927917016</v>
+      </c>
+      <c r="AI27">
+        <v>31.49424429163236</v>
+      </c>
+      <c r="AJ27">
+        <v>31.49424429163236</v>
+      </c>
+      <c r="AK27">
+        <v>31.25496989595387</v>
+      </c>
+      <c r="AL27">
+        <v>31.25496989595387</v>
+      </c>
+      <c r="AM27">
+        <v>27.93935943786735</v>
+      </c>
+      <c r="AN27">
+        <v>0.0293935943786735</v>
+      </c>
+      <c r="AO27">
+        <v>26.8731869739932</v>
+      </c>
+      <c r="AP27">
+        <v>26.8731869739932</v>
+      </c>
+      <c r="AQ27">
         <v>0.2625000000000028</v>
       </c>
-      <c r="V27">
-        <v>0.0001560574079657595</v>
-      </c>
-      <c r="W27">
-        <v>0.0004585578356068876</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
+      <c r="AR27">
+        <v>0.1248459263726076</v>
+      </c>
+      <c r="AS27">
+        <v>0.3668462684855101</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>116.625</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:47">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="B28">
         <v>116.8</v>
@@ -2614,7 +4546,7 @@
         <v>0.1010191888645281</v>
       </c>
       <c r="L28">
-        <v>0.01422949108577255</v>
+        <v>0.1422949108577255</v>
       </c>
       <c r="M28">
         <v>116.625</v>
@@ -2641,21 +4573,90 @@
         <v>116.8</v>
       </c>
       <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0.09064385292384619</v>
+      </c>
+      <c r="AA28">
+        <v>0.09064385292384619</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0.1599188201628808</v>
+      </c>
+      <c r="AD28">
+        <v>56.68116662661934</v>
+      </c>
+      <c r="AE28">
+        <v>56.68116662661934</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0.04747488344964091</v>
+      </c>
+      <c r="AH28">
+        <v>0.04747488344964091</v>
+      </c>
+      <c r="AI28">
+        <v>29.68686449867921</v>
+      </c>
+      <c r="AJ28">
+        <v>29.68686449867921</v>
+      </c>
+      <c r="AK28">
+        <v>31.25496989595387</v>
+      </c>
+      <c r="AL28">
+        <v>31.25496989595387</v>
+      </c>
+      <c r="AM28">
+        <v>28.88688727898358</v>
+      </c>
+      <c r="AN28">
+        <v>0.03886887278983581</v>
+      </c>
+      <c r="AO28">
+        <v>27.44865780410506</v>
+      </c>
+      <c r="AP28">
+        <v>27.44865780410506</v>
+      </c>
+      <c r="AQ28">
         <v>0.2374999999999972</v>
       </c>
-      <c r="V28">
-        <v>0.0001444750535659622</v>
-      </c>
-      <c r="W28">
-        <v>0.0004583476566977218</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
+      <c r="AR28">
+        <v>0.1155800428527698</v>
+      </c>
+      <c r="AS28">
+        <v>0.3666781253581775</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>116.625</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:47">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B29">
         <v>116.6</v>
@@ -2688,7 +4689,7 @@
         <v>0.05449116098178397</v>
       </c>
       <c r="L29">
-        <v>0.01556941442192414</v>
+        <v>0.1556941442192414</v>
       </c>
       <c r="M29">
         <v>116.625</v>
@@ -2715,21 +4716,90 @@
         <v>116.7333333333333</v>
       </c>
       <c r="U29">
+        <v>-0.2000000000000028</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>-0.2000000000000028</v>
+      </c>
+      <c r="X29">
         <v>0.2000000000000028</v>
       </c>
-      <c r="V29">
-        <v>7.275174376841775E-05</v>
-      </c>
-      <c r="W29">
-        <v>0.0003436032527774913</v>
-      </c>
-      <c r="X29">
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0.07833407769576783</v>
+      </c>
+      <c r="AA29">
+        <v>0.07833407769576783</v>
+      </c>
+      <c r="AB29">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="AC29">
+        <v>0.1632293883915692</v>
+      </c>
+      <c r="AD29">
+        <v>47.99018024122781</v>
+      </c>
+      <c r="AE29">
+        <v>47.99018024122781</v>
+      </c>
+      <c r="AF29">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="AG29">
+        <v>0.0681883663920399</v>
+      </c>
+      <c r="AH29">
+        <v>0.0681883663920399</v>
+      </c>
+      <c r="AI29">
+        <v>41.77456465649653</v>
+      </c>
+      <c r="AJ29">
+        <v>41.77456465649653</v>
+      </c>
+      <c r="AK29">
+        <v>6.92433938492578</v>
+      </c>
+      <c r="AL29">
+        <v>6.92433938492578</v>
+      </c>
+      <c r="AM29">
+        <v>22.61087737626033</v>
+      </c>
+      <c r="AN29">
+        <v>-0.02389122623739667</v>
+      </c>
+      <c r="AO29">
+        <v>26.06621538354379</v>
+      </c>
+      <c r="AP29">
+        <v>26.06621538354379</v>
+      </c>
+      <c r="AQ29">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="AR29">
+        <v>0.0582013950147342</v>
+      </c>
+      <c r="AS29">
+        <v>0.274882602221993</v>
+      </c>
+      <c r="AT29">
         <v>-0.00171232876712335</v>
       </c>
+      <c r="AU29">
+        <v>116.675</v>
+      </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:47">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="B30">
         <v>116.6</v>
@@ -2762,7 +4832,7 @@
         <v>0.05449116098178386</v>
       </c>
       <c r="L30">
-        <v>0.0162457345022425</v>
+        <v>0.162457345022425</v>
       </c>
       <c r="M30">
         <v>116.625</v>
@@ -2789,21 +4859,90 @@
         <v>116.6666666666667</v>
       </c>
       <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0.06772223180815631</v>
+      </c>
+      <c r="AA30">
+        <v>0.06772223180815631</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0.1498961059221633</v>
+      </c>
+      <c r="AD30">
+        <v>45.17944705202849</v>
+      </c>
+      <c r="AE30">
+        <v>45.17944705202849</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0.05895095073891081</v>
+      </c>
+      <c r="AH30">
+        <v>0.05895095073891081</v>
+      </c>
+      <c r="AI30">
+        <v>39.32787338019463</v>
+      </c>
+      <c r="AJ30">
+        <v>39.32787338019463</v>
+      </c>
+      <c r="AK30">
+        <v>6.924339384925786</v>
+      </c>
+      <c r="AL30">
+        <v>6.924339384925786</v>
+      </c>
+      <c r="AM30">
+        <v>18.12850115921599</v>
+      </c>
+      <c r="AN30">
+        <v>-0.0687149884078401</v>
+      </c>
+      <c r="AO30">
+        <v>23.79803986409671</v>
+      </c>
+      <c r="AP30">
+        <v>23.79803986409671</v>
+      </c>
+      <c r="AQ30">
         <v>0.1624999999999943</v>
       </c>
-      <c r="V30">
-        <v>6.772945469313285E-05</v>
-      </c>
-      <c r="W30">
-        <v>0.0003434852301351654</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
+      <c r="AR30">
+        <v>0.05418356375450628</v>
+      </c>
+      <c r="AS30">
+        <v>0.2747881841081323</v>
+      </c>
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30">
+        <v>116.65</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:47">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="B31">
         <v>116.6</v>
@@ -2836,7 +4975,7 @@
         <v>0.05449116098178397</v>
       </c>
       <c r="L31">
-        <v>0.0164203085274186</v>
+        <v>0.164203085274186</v>
       </c>
       <c r="M31">
         <v>116.625</v>
@@ -2863,21 +5002,90 @@
         <v>116.6</v>
       </c>
       <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0.05856751518897473</v>
+      </c>
+      <c r="AA31">
+        <v>0.05856751518897473</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0.1377762419783509</v>
+      </c>
+      <c r="AD31">
+        <v>42.50915422571737</v>
+      </c>
+      <c r="AE31">
+        <v>42.50915422571737</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0.05098193917451248</v>
+      </c>
+      <c r="AH31">
+        <v>0.05098193917451248</v>
+      </c>
+      <c r="AI31">
+        <v>37.00343284332244</v>
+      </c>
+      <c r="AJ31">
+        <v>37.00343284332244</v>
+      </c>
+      <c r="AK31">
+        <v>6.924339384925784</v>
+      </c>
+      <c r="AL31">
+        <v>6.924339384925784</v>
+      </c>
+      <c r="AM31">
+        <v>14.92705280533501</v>
+      </c>
+      <c r="AN31">
+        <v>-0.1007294719466499</v>
+      </c>
+      <c r="AO31">
+        <v>21.26326684950666</v>
+      </c>
+      <c r="AP31">
+        <v>21.26326684950666</v>
+      </c>
+      <c r="AQ31">
         <v>0.125</v>
       </c>
-      <c r="V31">
-        <v>6.320987654317989E-05</v>
-      </c>
-      <c r="W31">
-        <v>0.0003433672885428951</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
+      <c r="AR31">
+        <v>0.05056790123454391</v>
+      </c>
+      <c r="AS31">
+        <v>0.2746938308343161</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AU31">
+        <v>116.6</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:47">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B32">
         <v>116.6</v>
@@ -2910,7 +5118,7 @@
         <v>0.05449116098178397</v>
       </c>
       <c r="L32">
-        <v>0.01622175398289002</v>
+        <v>0.1622175398289002</v>
       </c>
       <c r="M32">
         <v>116.675</v>
@@ -2937,21 +5145,90 @@
         <v>116.6</v>
       </c>
       <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0.05066493297575878</v>
+      </c>
+      <c r="AA32">
+        <v>0.05066493297575878</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0.1267403607884383</v>
+      </c>
+      <c r="AD32">
+        <v>39.97537379614324</v>
+      </c>
+      <c r="AE32">
+        <v>39.97537379614324</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0.04410288746101922</v>
+      </c>
+      <c r="AH32">
+        <v>0.04410288746101922</v>
+      </c>
+      <c r="AI32">
+        <v>34.79782382396566</v>
+      </c>
+      <c r="AJ32">
+        <v>34.79782382396566</v>
+      </c>
+      <c r="AK32">
+        <v>6.92433938492578</v>
+      </c>
+      <c r="AL32">
+        <v>6.92433938492578</v>
+      </c>
+      <c r="AM32">
+        <v>12.64043098056863</v>
+      </c>
+      <c r="AN32">
+        <v>-0.1235956901943137</v>
+      </c>
+      <c r="AO32">
+        <v>18.79945693235936</v>
+      </c>
+      <c r="AP32">
+        <v>18.79945693235936</v>
+      </c>
+      <c r="AQ32">
         <v>0.1375000000000028</v>
       </c>
-      <c r="V32">
-        <v>0.0001718409898041617</v>
-      </c>
-      <c r="W32">
-        <v>0.0003432494279176357</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
+      <c r="AR32">
+        <v>0.1374727918433294</v>
+      </c>
+      <c r="AS32">
+        <v>0.2745995423341085</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>116.525</v>
       </c>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:47">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B33">
         <v>116.4</v>
@@ -2984,7 +5261,7 @@
         <v>0.006363548209481595</v>
       </c>
       <c r="L33">
-        <v>0.01511714859480909</v>
+        <v>0.1511714859480909</v>
       </c>
       <c r="M33">
         <v>116.65</v>
@@ -3011,21 +5288,90 @@
         <v>116.5333333333333</v>
       </c>
       <c r="U33">
+        <v>-0.1999999999999886</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>-0.1999999999999886</v>
+      </c>
+      <c r="X33">
+        <v>0.1999999999999886</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0.04383956097077174</v>
+      </c>
+      <c r="AA33">
+        <v>0.04383956097077174</v>
+      </c>
+      <c r="AB33">
+        <v>0.1999999999999886</v>
+      </c>
+      <c r="AC33">
+        <v>0.1325580125967353</v>
+      </c>
+      <c r="AD33">
+        <v>33.07198117411383</v>
+      </c>
+      <c r="AE33">
+        <v>33.07198117411383</v>
+      </c>
+      <c r="AF33">
+        <v>0.1999999999999886</v>
+      </c>
+      <c r="AG33">
+        <v>0.06510470716323623</v>
+      </c>
+      <c r="AH33">
+        <v>0.06510470716323623</v>
+      </c>
+      <c r="AI33">
+        <v>49.11412436553055</v>
+      </c>
+      <c r="AJ33">
+        <v>49.11412436553055</v>
+      </c>
+      <c r="AK33">
+        <v>19.51928867547863</v>
+      </c>
+      <c r="AL33">
+        <v>19.51928867547863</v>
+      </c>
+      <c r="AM33">
+        <v>14.60590010632568</v>
+      </c>
+      <c r="AN33">
+        <v>-0.1039409989367432</v>
+      </c>
+      <c r="AO33">
+        <v>17.60124832938509</v>
+      </c>
+      <c r="AP33">
+        <v>17.60124832938509</v>
+      </c>
+      <c r="AQ33">
         <v>0.08749999999999147</v>
       </c>
-      <c r="V33">
-        <v>0.0001145409770344497</v>
-      </c>
-      <c r="W33">
-        <v>0.0002287544321171175</v>
-      </c>
-      <c r="X33">
+      <c r="AR33">
+        <v>0.09163278162755972</v>
+      </c>
+      <c r="AS33">
+        <v>0.183003545693694</v>
+      </c>
+      <c r="AT33">
         <v>-0.001715265866209181</v>
       </c>
+      <c r="AU33">
+        <v>116.475</v>
+      </c>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:47">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B34">
         <v>116.4</v>
@@ -3058,7 +5404,7 @@
         <v>0.006363548209481595</v>
       </c>
       <c r="L34">
-        <v>0.01348393198661039</v>
+        <v>0.1348393198661039</v>
       </c>
       <c r="M34">
         <v>116.6</v>
@@ -3085,21 +5431,90 @@
         <v>116.4666666666667</v>
       </c>
       <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0.03794182909590588</v>
+      </c>
+      <c r="AA34">
+        <v>0.03794182909590588</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0.1221147597735997</v>
+      </c>
+      <c r="AD34">
+        <v>31.07063320293949</v>
+      </c>
+      <c r="AE34">
+        <v>31.07063320293949</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0.05634617723871388</v>
+      </c>
+      <c r="AH34">
+        <v>0.05634617723871388</v>
+      </c>
+      <c r="AI34">
+        <v>46.14198753957299</v>
+      </c>
+      <c r="AJ34">
+        <v>46.14198753957299</v>
+      </c>
+      <c r="AK34">
+        <v>19.51928867547863</v>
+      </c>
+      <c r="AL34">
+        <v>19.51928867547863</v>
+      </c>
+      <c r="AM34">
+        <v>16.00976684579004</v>
+      </c>
+      <c r="AN34">
+        <v>-0.08990233154209959</v>
+      </c>
+      <c r="AO34">
+        <v>17.14652591330765</v>
+      </c>
+      <c r="AP34">
+        <v>17.14652591330765</v>
+      </c>
+      <c r="AQ34">
         <v>0.01249999999998863</v>
       </c>
-      <c r="V34">
-        <v>0.0002290557178032948</v>
-      </c>
-      <c r="W34">
-        <v>-0.000114351057747264</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
+      <c r="AR34">
+        <v>0.1832445742426358</v>
+      </c>
+      <c r="AS34">
+        <v>-0.09148084619781116</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>116.4</v>
       </c>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:47">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B35">
         <v>116.2</v>
@@ -3132,7 +5547,7 @@
         <v>-0.03806231506501567</v>
       </c>
       <c r="L35">
-        <v>0.01095652320263235</v>
+        <v>0.1095652320263235</v>
       </c>
       <c r="M35">
         <v>116.525</v>
@@ -3159,21 +5574,90 @@
         <v>116.3333333333333</v>
       </c>
       <c r="U35">
+        <v>-0.2000000000000028</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>-0.2000000000000028</v>
+      </c>
+      <c r="X35">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0.0328436188792533</v>
+      </c>
+      <c r="AA35">
+        <v>0.0328436188792533</v>
+      </c>
+      <c r="AB35">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="AC35">
+        <v>0.1282059601071836</v>
+      </c>
+      <c r="AD35">
+        <v>25.61785649574727</v>
+      </c>
+      <c r="AE35">
+        <v>25.61785649574727</v>
+      </c>
+      <c r="AF35">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="AG35">
+        <v>0.07564881510078335</v>
+      </c>
+      <c r="AH35">
+        <v>0.07564881510078335</v>
+      </c>
+      <c r="AI35">
+        <v>59.00569290034481</v>
+      </c>
+      <c r="AJ35">
+        <v>59.00569290034481</v>
+      </c>
+      <c r="AK35">
+        <v>39.4545450325195</v>
+      </c>
+      <c r="AL35">
+        <v>39.4545450325195</v>
+      </c>
+      <c r="AM35">
+        <v>22.70841611715475</v>
+      </c>
+      <c r="AN35">
+        <v>-0.02291583882845244</v>
+      </c>
+      <c r="AO35">
+        <v>18.73567090178529</v>
+      </c>
+      <c r="AP35">
+        <v>18.73567090178529</v>
+      </c>
+      <c r="AQ35">
         <v>-0.03750000000000853</v>
       </c>
-      <c r="V35">
-        <v>-1.110223024625157E-16</v>
-      </c>
-      <c r="W35">
-        <v>-0.0002287282708142158</v>
-      </c>
-      <c r="X35">
+      <c r="AR35">
+        <v>-8.881784197001252E-14</v>
+      </c>
+      <c r="AS35">
+        <v>-0.1829826166513726</v>
+      </c>
+      <c r="AT35">
         <v>-0.001718213058419238</v>
       </c>
+      <c r="AU35">
+        <v>116.4</v>
+      </c>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:47">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="B36">
         <v>116.4</v>
@@ -3206,7 +5690,7 @@
         <v>0.007428058702797613</v>
       </c>
       <c r="L36">
-        <v>0.008644360446963682</v>
+        <v>0.08644360446963681</v>
       </c>
       <c r="M36">
         <v>116.475</v>
@@ -3233,21 +5717,90 @@
         <v>116.3333333333333</v>
       </c>
       <c r="U36">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="V36">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="W36">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="Z36">
+        <v>0.05528103445078653</v>
+      </c>
+      <c r="AA36">
+        <v>0.05528103445078653</v>
+      </c>
+      <c r="AB36">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="AC36">
+        <v>0.133782978120842</v>
+      </c>
+      <c r="AD36">
+        <v>41.32142610912196</v>
+      </c>
+      <c r="AE36">
+        <v>41.32142610912196</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>0.06549446807239069</v>
+      </c>
+      <c r="AH36">
+        <v>0.06549446807239069</v>
+      </c>
+      <c r="AI36">
+        <v>48.9557558011839</v>
+      </c>
+      <c r="AJ36">
+        <v>48.9557558011839</v>
+      </c>
+      <c r="AK36">
+        <v>8.456544090672839</v>
+      </c>
+      <c r="AL36">
+        <v>8.456544090672839</v>
+      </c>
+      <c r="AM36">
+        <v>18.6363913634052</v>
+      </c>
+      <c r="AN36">
+        <v>-0.06363608636594797</v>
+      </c>
+      <c r="AO36">
+        <v>18.7073048922482</v>
+      </c>
+      <c r="AP36">
+        <v>18.7073048922482</v>
+      </c>
+      <c r="AQ36">
         <v>-0.07500000000000284</v>
       </c>
-      <c r="V36">
-        <v>-0.000171752447472362</v>
-      </c>
-      <c r="W36">
-        <v>-0.0001143902997026158</v>
-      </c>
-      <c r="X36">
+      <c r="AR36">
+        <v>-0.1374019579778896</v>
+      </c>
+      <c r="AS36">
+        <v>-0.09151223976209266</v>
+      </c>
+      <c r="AT36">
         <v>0.001721170395869276</v>
       </c>
+      <c r="AU36">
+        <v>116.4</v>
+      </c>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:47">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B37">
         <v>116</v>
@@ -3280,7 +5833,7 @@
         <v>-0.06924213124730194</v>
       </c>
       <c r="L37">
-        <v>0.005318755231196167</v>
+        <v>0.05318755231196167</v>
       </c>
       <c r="M37">
         <v>116.4</v>
@@ -3307,21 +5860,90 @@
         <v>116.2</v>
       </c>
       <c r="U37">
+        <v>-0.4000000000000057</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>-0.4000000000000057</v>
+      </c>
+      <c r="X37">
+        <v>0.4000000000000057</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0.04786730467891558</v>
+      </c>
+      <c r="AA37">
+        <v>0.04786730467891558</v>
+      </c>
+      <c r="AB37">
+        <v>0.4000000000000057</v>
+      </c>
+      <c r="AC37">
+        <v>0.1543344354382799</v>
+      </c>
+      <c r="AD37">
+        <v>31.01531070689553</v>
+      </c>
+      <c r="AE37">
+        <v>31.01531070689553</v>
+      </c>
+      <c r="AF37">
+        <v>0.4000000000000057</v>
+      </c>
+      <c r="AG37">
+        <v>0.1103549459115857</v>
+      </c>
+      <c r="AH37">
+        <v>0.1103549459115857</v>
+      </c>
+      <c r="AI37">
+        <v>71.50377399457162</v>
+      </c>
+      <c r="AJ37">
+        <v>71.50377399457162</v>
+      </c>
+      <c r="AK37">
+        <v>39.49358639474536</v>
+      </c>
+      <c r="AL37">
+        <v>39.49358639474536</v>
+      </c>
+      <c r="AM37">
+        <v>24.59565404102613</v>
+      </c>
+      <c r="AN37">
+        <v>-0.004043459589738729</v>
+      </c>
+      <c r="AO37">
+        <v>20.38970845909343</v>
+      </c>
+      <c r="AP37">
+        <v>20.38970845909343</v>
+      </c>
+      <c r="AQ37">
         <v>-0.1124999999999972</v>
       </c>
-      <c r="V37">
-        <v>-0.0002863032524049736</v>
-      </c>
-      <c r="W37">
-        <v>-0.0003432101590207237</v>
-      </c>
-      <c r="X37">
+      <c r="AR37">
+        <v>-0.2290426019239789</v>
+      </c>
+      <c r="AS37">
+        <v>-0.274568127216579</v>
+      </c>
+      <c r="AT37">
         <v>-0.003436426116838587</v>
       </c>
+      <c r="AU37">
+        <v>116.375</v>
+      </c>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:47">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="B38">
         <v>116.6</v>
@@ -3354,7 +5976,7 @@
         <v>0.04040453860998272</v>
       </c>
       <c r="L38">
-        <v>0.003463983036766087</v>
+        <v>0.03463983036766088</v>
       </c>
       <c r="M38">
         <v>116.4</v>
@@ -3381,21 +6003,90 @@
         <v>116.3333333333333</v>
       </c>
       <c r="U38">
+        <v>0.5999999999999943</v>
+      </c>
+      <c r="V38">
+        <v>0.5999999999999943</v>
+      </c>
+      <c r="W38">
+        <v>0.5999999999999943</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0.5999999999999943</v>
+      </c>
+      <c r="Z38">
+        <v>0.1218562712814312</v>
+      </c>
+      <c r="AA38">
+        <v>0.1218562712814312</v>
+      </c>
+      <c r="AB38">
+        <v>0.5999999999999943</v>
+      </c>
+      <c r="AC38">
+        <v>0.1885416248741653</v>
+      </c>
+      <c r="AD38">
+        <v>64.63096484012982</v>
+      </c>
+      <c r="AE38">
+        <v>64.63096484012982</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>0.0955667464865787</v>
+      </c>
+      <c r="AH38">
+        <v>0.0955667464865787</v>
+      </c>
+      <c r="AI38">
+        <v>50.6873463885553</v>
+      </c>
+      <c r="AJ38">
+        <v>50.6873463885553</v>
+      </c>
+      <c r="AK38">
+        <v>12.09141748869635</v>
+      </c>
+      <c r="AL38">
+        <v>12.09141748869635</v>
+      </c>
+      <c r="AM38">
+        <v>21.02298757804193</v>
+      </c>
+      <c r="AN38">
+        <v>-0.03977012421958065</v>
+      </c>
+      <c r="AO38">
+        <v>20.57064674033171</v>
+      </c>
+      <c r="AP38">
+        <v>20.57064674033171</v>
+      </c>
+      <c r="AQ38">
         <v>-0.1125000000000114</v>
       </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>2.220446049250313E-16</v>
-      </c>
-      <c r="X38">
+      <c r="AR38">
+        <v>0</v>
+      </c>
+      <c r="AS38">
+        <v>1.77635683940025E-13</v>
+      </c>
+      <c r="AT38">
         <v>0.005172413793103292</v>
       </c>
+      <c r="AU38">
+        <v>116.4</v>
+      </c>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:47">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="B39">
         <v>116.6</v>
@@ -3428,7 +6119,7 @@
         <v>0.04040453860998272</v>
       </c>
       <c r="L39">
-        <v>0.002603227918764506</v>
+        <v>0.02603227918764506</v>
       </c>
       <c r="M39">
         <v>116.4</v>
@@ -3455,21 +6146,90 @@
         <v>116.4</v>
       </c>
       <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0.1055378010286776</v>
+      </c>
+      <c r="AA39">
+        <v>0.1055378010286776</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0.1741467353890686</v>
+      </c>
+      <c r="AD39">
+        <v>60.60280188020242</v>
+      </c>
+      <c r="AE39">
+        <v>60.60280188020242</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>0.08276885686387754</v>
+      </c>
+      <c r="AH39">
+        <v>0.08276885686387754</v>
+      </c>
+      <c r="AI39">
+        <v>47.52822766327496</v>
+      </c>
+      <c r="AJ39">
+        <v>47.52822766327496</v>
+      </c>
+      <c r="AK39">
+        <v>12.09141748869637</v>
+      </c>
+      <c r="AL39">
+        <v>12.09141748869637</v>
+      </c>
+      <c r="AM39">
+        <v>18.47109640563288</v>
+      </c>
+      <c r="AN39">
+        <v>-0.06528903594367119</v>
+      </c>
+      <c r="AO39">
+        <v>19.97077192419633</v>
+      </c>
+      <c r="AP39">
+        <v>19.97077192419633</v>
+      </c>
+      <c r="AQ39">
         <v>-0.1124999999999972</v>
       </c>
-      <c r="V39">
-        <v>0.0001145540981728477</v>
-      </c>
-      <c r="W39">
-        <v>0.0002288853284504455</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
+      <c r="AR39">
+        <v>0.09164327853827814</v>
+      </c>
+      <c r="AS39">
+        <v>0.1831082627603564</v>
+      </c>
+      <c r="AT39">
+        <v>0</v>
+      </c>
+      <c r="AU39">
+        <v>116.425</v>
       </c>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:47">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="B40">
         <v>116.4</v>
@@ -3502,7 +6262,7 @@
         <v>0.004512210710853504</v>
       </c>
       <c r="L40">
-        <v>0.00176024955238527</v>
+        <v>0.0176024955238527</v>
       </c>
       <c r="M40">
         <v>116.375</v>
@@ -3529,21 +6289,90 @@
         <v>116.5333333333333</v>
       </c>
       <c r="U40">
+        <v>-0.1999999999999886</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>-0.1999999999999886</v>
+      </c>
+      <c r="X40">
+        <v>0.1999999999999886</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0.09141285663530736</v>
+      </c>
+      <c r="AA40">
+        <v>0.09141285663530736</v>
+      </c>
+      <c r="AB40">
+        <v>0.1999999999999886</v>
+      </c>
+      <c r="AC40">
+        <v>0.1761109320923255</v>
+      </c>
+      <c r="AD40">
+        <v>51.9064066888162</v>
+      </c>
+      <c r="AE40">
+        <v>51.9064066888162</v>
+      </c>
+      <c r="AF40">
+        <v>0.1999999999999886</v>
+      </c>
+      <c r="AG40">
+        <v>0.09845881213894382</v>
+      </c>
+      <c r="AH40">
+        <v>0.09845881213894382</v>
+      </c>
+      <c r="AI40">
+        <v>55.9072687704175</v>
+      </c>
+      <c r="AJ40">
+        <v>55.9072687704175</v>
+      </c>
+      <c r="AK40">
+        <v>3.71090408017311</v>
+      </c>
+      <c r="AL40">
+        <v>3.71090408017311</v>
+      </c>
+      <c r="AM40">
+        <v>14.25388206776867</v>
+      </c>
+      <c r="AN40">
+        <v>-0.1074611793223133</v>
+      </c>
+      <c r="AO40">
+        <v>18.33736841976292</v>
+      </c>
+      <c r="AP40">
+        <v>18.33736841976292</v>
+      </c>
+      <c r="AQ40">
         <v>-0.1500000000000057</v>
       </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>-0.0001144164759724342</v>
-      </c>
-      <c r="X40">
+      <c r="AR40">
+        <v>0</v>
+      </c>
+      <c r="AS40">
+        <v>-0.09153318077794736</v>
+      </c>
+      <c r="AT40">
         <v>-0.001715265866209181</v>
       </c>
+      <c r="AU40">
+        <v>116.45</v>
+      </c>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:47">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B41">
         <v>116.6</v>
@@ -3576,7 +6405,7 @@
         <v>0.03688972127970669</v>
       </c>
       <c r="L41">
-        <v>0.001603283472309924</v>
+        <v>0.01603283472309924</v>
       </c>
       <c r="M41">
         <v>116.4</v>
@@ -3603,21 +6432,90 @@
         <v>116.5333333333333</v>
       </c>
       <c r="U41">
+        <v>0.1999999999999886</v>
+      </c>
+      <c r="V41">
+        <v>0.1999999999999886</v>
+      </c>
+      <c r="W41">
+        <v>0.1999999999999886</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0.1999999999999886</v>
+      </c>
+      <c r="Z41">
+        <v>0.1059385908446906</v>
+      </c>
+      <c r="AA41">
+        <v>0.1059385908446906</v>
+      </c>
+      <c r="AB41">
+        <v>0.1999999999999886</v>
+      </c>
+      <c r="AC41">
+        <v>0.1779176854164376</v>
+      </c>
+      <c r="AD41">
+        <v>59.54359770178478</v>
+      </c>
+      <c r="AE41">
+        <v>59.54359770178478</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>0.08528794778625774</v>
+      </c>
+      <c r="AH41">
+        <v>0.08528794778625774</v>
+      </c>
+      <c r="AI41">
+        <v>47.93674534750782</v>
+      </c>
+      <c r="AJ41">
+        <v>47.93674534750782</v>
+      </c>
+      <c r="AK41">
+        <v>10.79904662097498</v>
+      </c>
+      <c r="AL41">
+        <v>10.79904662097498</v>
+      </c>
+      <c r="AM41">
+        <v>13.26678346210035</v>
+      </c>
+      <c r="AN41">
+        <v>-0.1173321653789965</v>
+      </c>
+      <c r="AO41">
+        <v>16.88862580416987</v>
+      </c>
+      <c r="AP41">
+        <v>16.88862580416987</v>
+      </c>
+      <c r="AQ41">
         <v>-0.125</v>
       </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>-0.000114429568600638</v>
-      </c>
-      <c r="X41">
+      <c r="AR41">
+        <v>0</v>
+      </c>
+      <c r="AS41">
+        <v>-0.09154365488051042</v>
+      </c>
+      <c r="AT41">
         <v>0.001718213058419238</v>
       </c>
+      <c r="AU41">
+        <v>116.45</v>
+      </c>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:47">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B42">
         <v>116.6</v>
@@ -3650,7 +6548,7 @@
         <v>0.03688972127970669</v>
       </c>
       <c r="L42">
-        <v>0.001865187537516803</v>
+        <v>0.01865187537516803</v>
       </c>
       <c r="M42">
         <v>116.425</v>
@@ -3677,21 +6575,90 @@
         <v>116.5333333333333</v>
       </c>
       <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0.09177334395840017</v>
+      </c>
+      <c r="AA42">
+        <v>0.09177334395840017</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>0.164517909858749</v>
+      </c>
+      <c r="AD42">
+        <v>55.78319347552766</v>
+      </c>
+      <c r="AE42">
+        <v>55.78319347552766</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>0.07388393696088687</v>
+      </c>
+      <c r="AH42">
+        <v>0.07388393696088687</v>
+      </c>
+      <c r="AI42">
+        <v>44.90935790779361</v>
+      </c>
+      <c r="AJ42">
+        <v>44.90935790779361</v>
+      </c>
+      <c r="AK42">
+        <v>10.79904662097498</v>
+      </c>
+      <c r="AL42">
+        <v>10.79904662097498</v>
+      </c>
+      <c r="AM42">
+        <v>12.56171438314517</v>
+      </c>
+      <c r="AN42">
+        <v>-0.1243828561685484</v>
+      </c>
+      <c r="AO42">
+        <v>15.6523629257702</v>
+      </c>
+      <c r="AP42">
+        <v>15.6523629257702</v>
+      </c>
+      <c r="AQ42">
         <v>-0.08749999999999147</v>
       </c>
-      <c r="V42">
-        <v>0.0001718114655517855</v>
-      </c>
-      <c r="W42">
-        <v>-0.0001144426642252228</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
+      <c r="AR42">
+        <v>0.1374491724414284</v>
+      </c>
+      <c r="AS42">
+        <v>-0.09155413138017821</v>
+      </c>
+      <c r="AT42">
+        <v>0</v>
+      </c>
+      <c r="AU42">
+        <v>116.475</v>
       </c>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:47">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="B43">
         <v>116.4</v>
@@ -3724,7 +6691,7 @@
         <v>0.0006412327625979763</v>
       </c>
       <c r="L43">
-        <v>0.001729765902732211</v>
+        <v>0.01729765902732211</v>
       </c>
       <c r="M43">
         <v>116.45</v>
@@ -3751,21 +6718,90 @@
         <v>116.5333333333333</v>
       </c>
       <c r="U43">
+        <v>-0.1999999999999886</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>-0.1999999999999886</v>
+      </c>
+      <c r="X43">
+        <v>0.1999999999999886</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0.07950680200810936</v>
+      </c>
+      <c r="AA43">
+        <v>0.07950680200810936</v>
+      </c>
+      <c r="AB43">
+        <v>0.1999999999999886</v>
+      </c>
+      <c r="AC43">
+        <v>0.1671798804097297</v>
+      </c>
+      <c r="AD43">
+        <v>47.55763780501075</v>
+      </c>
+      <c r="AE43">
+        <v>47.55763780501075</v>
+      </c>
+      <c r="AF43">
+        <v>0.1999999999999886</v>
+      </c>
+      <c r="AG43">
+        <v>0.09074077045031387</v>
+      </c>
+      <c r="AH43">
+        <v>0.09074077045031387</v>
+      </c>
+      <c r="AI43">
+        <v>54.27732704911833</v>
+      </c>
+      <c r="AJ43">
+        <v>54.27732704911833</v>
+      </c>
+      <c r="AK43">
+        <v>6.598607122546786</v>
+      </c>
+      <c r="AL43">
+        <v>6.598607122546786</v>
+      </c>
+      <c r="AM43">
+        <v>10.85796701775189</v>
+      </c>
+      <c r="AN43">
+        <v>-0.1414203298224811</v>
+      </c>
+      <c r="AO43">
+        <v>14.28253356668555</v>
+      </c>
+      <c r="AP43">
+        <v>14.28253356668555</v>
+      </c>
+      <c r="AQ43">
         <v>-0.03749999999999432</v>
       </c>
-      <c r="V43">
-        <v>0.0001145213009619006</v>
-      </c>
-      <c r="W43">
-        <v>-0.0002289115256952634</v>
-      </c>
-      <c r="X43">
+      <c r="AR43">
+        <v>0.09161704076952049</v>
+      </c>
+      <c r="AS43">
+        <v>-0.1831292205562107</v>
+      </c>
+      <c r="AT43">
         <v>-0.001715265866209181</v>
       </c>
+      <c r="AU43">
+        <v>116.4</v>
+      </c>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:47">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="B44">
         <v>116.4</v>
@@ -3798,7 +6834,7 @@
         <v>0.0006412327625979763</v>
       </c>
       <c r="L44">
-        <v>0.001356352605778825</v>
+        <v>0.01356352605778825</v>
       </c>
       <c r="M44">
         <v>116.45</v>
@@ -3825,21 +6861,90 @@
         <v>116.4666666666667</v>
       </c>
       <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0.06888330552845054</v>
+      </c>
+      <c r="AA44">
+        <v>0.06888330552845054</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>0.1546824752884376</v>
+      </c>
+      <c r="AD44">
+        <v>44.53206829022054</v>
+      </c>
+      <c r="AE44">
+        <v>44.53206829022054</v>
+      </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <v>0.07861621970631442</v>
+      </c>
+      <c r="AH44">
+        <v>0.07861621970631442</v>
+      </c>
+      <c r="AI44">
+        <v>50.82425760236779</v>
+      </c>
+      <c r="AJ44">
+        <v>50.82425760236779</v>
+      </c>
+      <c r="AK44">
+        <v>6.598607122546778</v>
+      </c>
+      <c r="AL44">
+        <v>6.598607122546778</v>
+      </c>
+      <c r="AM44">
+        <v>9.641005805963001</v>
+      </c>
+      <c r="AN44">
+        <v>-0.15358994194037</v>
+      </c>
+      <c r="AO44">
+        <v>12.95638142476408</v>
+      </c>
+      <c r="AP44">
+        <v>12.95638142476408</v>
+      </c>
+      <c r="AQ44">
         <v>-0.01250000000000284</v>
       </c>
-      <c r="V44">
-        <v>0.0001145081873354936</v>
-      </c>
-      <c r="W44">
-        <v>-0.000114481969089808</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
+      <c r="AR44">
+        <v>0.09160654986839489</v>
+      </c>
+      <c r="AS44">
+        <v>-0.09158557527184641</v>
+      </c>
+      <c r="AT44">
+        <v>0</v>
+      </c>
+      <c r="AU44">
+        <v>116.4</v>
       </c>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:47">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="B45">
         <v>116.2</v>
@@ -3872,7 +6977,7 @@
         <v>-0.03420474552642688</v>
       </c>
       <c r="L45">
-        <v>0.0002313103492407204</v>
+        <v>0.002313103492407204</v>
       </c>
       <c r="M45">
         <v>116.475</v>
@@ -3899,16 +7004,85 @@
         <v>116.3333333333333</v>
       </c>
       <c r="U45">
+        <v>-0.2000000000000028</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>-0.2000000000000028</v>
+      </c>
+      <c r="X45">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0.05968190791310692</v>
+      </c>
+      <c r="AA45">
+        <v>0.05968190791310692</v>
+      </c>
+      <c r="AB45">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="AC45">
+        <v>0.158058923513869</v>
+      </c>
+      <c r="AD45">
+        <v>37.7592777340851</v>
+      </c>
+      <c r="AE45">
+        <v>37.7592777340851</v>
+      </c>
+      <c r="AF45">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="AG45">
+        <v>0.09483060457021197</v>
+      </c>
+      <c r="AH45">
+        <v>0.09483060457021197</v>
+      </c>
+      <c r="AI45">
+        <v>59.99699508385618</v>
+      </c>
+      <c r="AJ45">
+        <v>59.99699508385618</v>
+      </c>
+      <c r="AK45">
+        <v>22.74812317280757</v>
+      </c>
+      <c r="AL45">
+        <v>22.74812317280757</v>
+      </c>
+      <c r="AM45">
+        <v>13.38589921157147</v>
+      </c>
+      <c r="AN45">
+        <v>-0.1161410078842853</v>
+      </c>
+      <c r="AO45">
+        <v>13.07910088186418</v>
+      </c>
+      <c r="AP45">
+        <v>13.07910088186418</v>
+      </c>
+      <c r="AQ45">
         <v>0.03750000000000853</v>
       </c>
-      <c r="V45">
-        <v>5.724753835600893E-05</v>
-      </c>
-      <c r="W45">
-        <v>-0.0002289901534235916</v>
-      </c>
-      <c r="X45">
+      <c r="AR45">
+        <v>0.04579803068480715</v>
+      </c>
+      <c r="AS45">
+        <v>-0.1831921227388733</v>
+      </c>
+      <c r="AT45">
         <v>-0.001718213058419238</v>
+      </c>
+      <c r="AU45">
+        <v>116.2</v>
       </c>
     </row>
   </sheetData>
